--- a/文档/生产力造价.xlsx
+++ b/文档/生产力造价.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D75B8-156C-4DEE-807C-1386179E2AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="奇观" sheetId="1" r:id="rId1"/>
     <sheet name="建筑单位" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="287">
   <si>
     <t>BUILDING_STONEHENGE</t>
   </si>
@@ -867,19 +886,23 @@
   </si>
   <si>
     <t>UNIT_MODERN_ARMOR</t>
+  </si>
+  <si>
+    <t>&lt;Update&gt;&lt;Where UnitType="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COST_PROGRESSION_GAME_PROGRESS</t>
+  </si>
+  <si>
+    <t>COST_PROGRESSION_PREVIOUS_COPIES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,345 +911,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1234,314 +941,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1799,27 +1223,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J1" sqref="J1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.625" customWidth="1"/>
-    <col min="8" max="8" width="12.625"/>
-    <col min="11" max="11" width="46.25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="46.21875" hidden="1" customWidth="1"/>
     <col min="12" max="13" width="9" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +1270,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STONEHENGE" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1860,7 +1286,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HANGING_GARDENS" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1876,7 +1302,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TEMPLE_ARTEMIS" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1892,7 +1318,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_BATH" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1908,7 +1334,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PYRAMIDS" /&gt;&lt;Set Cost="160"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1936,7 +1362,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ETEMENANKI" /&gt;&lt;Set Cost="160"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1970,7 +1396,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ORACLE" /&gt;&lt;Set Cost="210"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2004,7 +1430,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_LIGHTHOUSE" /&gt;&lt;Set Cost="210"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2038,7 +1464,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_COLOSSUS" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2072,7 +1498,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PETRA" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2106,7 +1532,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_COLOSSEUM" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2140,7 +1566,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_LIBRARY" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2174,7 +1600,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MAHABODHI_TEMPLE" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2208,7 +1634,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TERRACOTTA_ARMY" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2224,7 +1650,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_JEBEL_BARKAL" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2240,7 +1666,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_APADANA" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2265,7 +1691,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HALICARNASSUS_MAUSOLEUM" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2294,7 +1720,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MACHU_PICCHU" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2316,14 +1742,14 @@
       </c>
       <c r="H19">
         <f t="shared" ref="H19:H29" si="5">G19/F19</f>
-        <v>0.727272727272727</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STATUE_OF_ZEUS" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2345,14 +1771,14 @@
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
-        <v>0.724137931034483</v>
+        <v>0.72413793103448276</v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HAGIA_SOPHIA" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2381,7 +1807,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ALHAMBRA" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2403,14 +1829,14 @@
       </c>
       <c r="H22">
         <f t="shared" si="5"/>
-        <v>0.563380281690141</v>
+        <v>0.56338028169014087</v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CHICHEN_ITZA" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2432,14 +1858,14 @@
       </c>
       <c r="H23">
         <f t="shared" si="5"/>
-        <v>0.543478260869565</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MONT_ST_MICHEL" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -2461,14 +1887,14 @@
       </c>
       <c r="H24">
         <f t="shared" si="5"/>
-        <v>0.566037735849057</v>
+        <v>0.56603773584905659</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HUEY_TEOCALLI" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2490,14 +1916,14 @@
       </c>
       <c r="H25">
         <f t="shared" si="5"/>
-        <v>0.564516129032258</v>
+        <v>0.56451612903225812</v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ANGKOR_WAT" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2519,14 +1945,14 @@
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>0.568965517241379</v>
+        <v>0.56896551724137934</v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_KILWA_KISIWANI" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2548,14 +1974,14 @@
       </c>
       <c r="H27">
         <f t="shared" si="5"/>
-        <v>0.66358024691358</v>
+        <v>0.6635802469135802</v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_KOTOKU_IN" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2577,14 +2003,14 @@
       </c>
       <c r="H28">
         <f t="shared" si="5"/>
-        <v>0.660919540229885</v>
+        <v>0.66091954022988508</v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MEENAKSHI_TEMPLE" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2606,14 +2032,14 @@
       </c>
       <c r="H29">
         <f t="shared" si="5"/>
-        <v>0.72972972972973</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="O29" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_UNIVERSITY_SANKORE" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -2629,7 +2055,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_VENETIAN_ARSENAL" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2645,7 +2071,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_ZIMBABWE" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2661,7 +2087,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FORBIDDEN_CITY" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2677,7 +2103,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CASA_DE_CONTRATACION" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2693,7 +2119,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ST_BASILS_CATHEDRAL" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2709,7 +2135,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TAJ_MAHAL" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -2725,7 +2151,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ORSZAGHAZ" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -2741,7 +2167,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PANAMA_CANAL" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -2757,7 +2183,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TORRE_DE_BELEM" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2773,7 +2199,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_POTALA_PALACE" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2789,7 +2215,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_RUHR_VALLEY" /&gt;&lt;Set Cost="700"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -2805,7 +2231,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BOLSHOI_THEATRE" /&gt;&lt;Set Cost="700"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -2821,7 +2247,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_OXFORD_UNIVERSITY" /&gt;&lt;Set Cost="700"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -2837,7 +2263,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STATUE_LIBERTY" /&gt;&lt;Set Cost="700"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -2853,7 +2279,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BIG_BEN" /&gt;&lt;Set Cost="825"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -2869,7 +2295,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HERMITAGE" /&gt;&lt;Set Cost="825"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -2885,7 +2311,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_EIFFEL_TOWER" /&gt;&lt;Set Cost="1075"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -2901,7 +2327,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BROADWAY" /&gt;&lt;Set Cost="1075"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -2917,7 +2343,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CRISTO_REDENTOR" /&gt;&lt;Set Cost="1075"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -2933,7 +2359,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_AMUNDSEN_SCOTT_RESEARCH_STATION" /&gt;&lt;Set Cost="1075"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -2949,7 +2375,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOLDEN_GATE_BRIDGE" /&gt;&lt;Set Cost="1075"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -2965,7 +2391,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ESTADIO_DO_MARACANA" /&gt;&lt;Set Cost="1150"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -2981,7 +2407,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BIOSPHERE" /&gt;&lt;Set Cost="1150"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2998,39 +2424,49 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B53">
     <sortCondition ref="B53"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="10" max="10" width="12.625"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="6" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="75.77734375" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D1">
         <v>0.78</v>
       </c>
       <c r="E1">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="F1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3048,17 +2484,30 @@
         <f>ROUND(B2*E$1/5,0)*5</f>
         <v>25</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="str">
+        <f>_xlfn.CONCAT(F2,A2,G2,E2,H2)</f>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SCOUT" /&gt;&lt;Set Cost="25"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K2" t="s">
         <v>72</v>
       </c>
-      <c r="H2">
+      <c r="L2">
         <v>60</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -3069,24 +2518,37 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D34" si="0">ROUND(B3*D$1/5,0)*5</f>
+        <f t="shared" ref="D3:D29" si="0">ROUND(B3*D$1/5,0)*5</f>
         <v>25</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E34" si="1">ROUND(B3*E$1/5,0)*5</f>
+        <f t="shared" ref="E3:E29" si="1">ROUND(B3*E$1/5,0)*5</f>
         <v>30</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I59" si="2">_xlfn.CONCAT(F3,A3,G3,E3,H3)</f>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SLINGER" /&gt;&lt;Set Cost="30"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K3" t="s">
         <v>74</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>65</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -3104,17 +2566,30 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BARBARIAN_HORSE_ARCHER" /&gt;&lt;Set Cost="30"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K4" t="s">
         <v>76</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>70</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -3132,19 +2607,32 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BABYLONIAN_SABUM_KIBITTUM" /&gt;&lt;Set Cost="30"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K5" t="s">
         <v>78</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <v>80</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -3160,19 +2648,32 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_WARRIOR" /&gt;&lt;Set Cost="35"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>80</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -3188,19 +2689,32 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BARBARIAN_HORSEMAN" /&gt;&lt;Set Cost="35"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K7" t="s">
         <v>82</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <v>80</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -3216,78 +2730,117 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_CREE_OKIHTCITAW" /&gt;&lt;Set Cost="35"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="H8">
+      <c r="L8">
         <v>80</v>
       </c>
-      <c r="I8" t="s">
+      <c r="M8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SUMERIAN_WAR_CART" /&gt;&lt;Set Cost="50"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K9" t="s">
         <v>86</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <v>90</v>
       </c>
-      <c r="I9" t="s">
+      <c r="M9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ARCHER" /&gt;&lt;Set Cost="50"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K10" t="s">
         <v>88</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>90</v>
       </c>
-      <c r="I10" t="s">
+      <c r="M10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -3300,19 +2853,32 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MAYAN_HULCHE" /&gt;&lt;Set Cost="50"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K11" t="s">
         <v>90</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>90</v>
       </c>
-      <c r="I11" t="s">
+      <c r="M11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <v>60</v>
@@ -3328,75 +2894,114 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_GAUL_GAESATAE" /&gt;&lt;Set Cost="50"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K12" t="s">
         <v>92</v>
       </c>
-      <c r="H12">
+      <c r="L12">
         <v>120</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_GALLEY" /&gt;&lt;Set Cost="55"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K13" t="s">
         <v>94</v>
       </c>
-      <c r="H13">
+      <c r="L13">
         <v>120</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_NORWEGIAN_LONGSHIP" /&gt;&lt;Set Cost="55"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K14" t="s">
         <v>96</v>
       </c>
-      <c r="H14">
+      <c r="L14">
         <v>120</v>
       </c>
-      <c r="I14" t="s">
+      <c r="M14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B15">
         <v>65</v>
@@ -3412,19 +3017,32 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SPEARMAN" /&gt;&lt;Set Cost="55"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K15" t="s">
         <v>98</v>
       </c>
-      <c r="H15">
+      <c r="L15">
         <v>120</v>
       </c>
-      <c r="I15" t="s">
+      <c r="M15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B16">
         <v>65</v>
@@ -3440,19 +3058,32 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_HEAVY_CHARIOT" /&gt;&lt;Set Cost="55"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K16" t="s">
         <v>100</v>
       </c>
-      <c r="H16">
+      <c r="L16">
         <v>120</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B17">
         <v>65</v>
@@ -3468,19 +3099,32 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BATTERING_RAM" /&gt;&lt;Set Cost="55"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K17" t="s">
         <v>102</v>
       </c>
-      <c r="H17">
+      <c r="L17">
         <v>120</v>
       </c>
-      <c r="I17" t="s">
+      <c r="M17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B18">
         <v>65</v>
@@ -3496,19 +3140,32 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_GREEK_HOPLITE" /&gt;&lt;Set Cost="55"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K18" t="s">
         <v>104</v>
       </c>
-      <c r="H18">
+      <c r="L18">
         <v>120</v>
       </c>
-      <c r="I18" t="s">
+      <c r="M18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B19">
         <v>65</v>
@@ -3524,19 +3181,32 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_AZTEC_EAGLE_WARRIOR" /&gt;&lt;Set Cost="55"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K19" t="s">
         <v>106</v>
       </c>
-      <c r="H19">
+      <c r="L19">
         <v>120</v>
       </c>
-      <c r="I19" t="s">
+      <c r="M19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B20">
         <v>65</v>
@@ -3552,271 +3222,401 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_PHOENICIA_BIREME" /&gt;&lt;Set Cost="55"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K20" t="s">
         <v>108</v>
       </c>
-      <c r="H20">
+      <c r="L20">
         <v>135</v>
       </c>
-      <c r="I20" t="s">
+      <c r="M20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B21">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_NUBIAN_PITATI" /&gt;&lt;Set Cost="60"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K21" t="s">
         <v>110</v>
       </c>
-      <c r="H21">
+      <c r="L21">
         <v>150</v>
       </c>
-      <c r="I21" t="s">
+      <c r="M21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_HORSEMAN" /&gt;&lt;Set Cost="70"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K22" t="s">
         <v>112</v>
       </c>
-      <c r="H22">
+      <c r="L22">
         <v>150</v>
       </c>
-      <c r="I22" t="s">
+      <c r="M22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>80</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SWORDSMAN" /&gt;&lt;Set Cost="80"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K23" t="s">
         <v>114</v>
       </c>
-      <c r="H23">
+      <c r="L23">
         <v>150</v>
       </c>
-      <c r="I23" t="s">
+      <c r="M23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B24">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_EGYPTIAN_CHARIOT_ARCHER" /&gt;&lt;Set Cost="80"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K24" t="s">
         <v>116</v>
       </c>
-      <c r="H24">
+      <c r="L24">
         <v>150</v>
       </c>
-      <c r="I24" t="s">
+      <c r="M24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B25">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>85</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_WARRIOR_MONK" /&gt;&lt;Set Cost="85"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K25" t="s">
         <v>118</v>
       </c>
-      <c r="H25">
+      <c r="L25">
         <v>150</v>
       </c>
-      <c r="I25" t="s">
+      <c r="M25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SCYTHIAN_HORSE_ARCHER" /&gt;&lt;Set Cost="85"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K26" t="s">
         <v>120</v>
       </c>
-      <c r="H26">
+      <c r="L26">
         <v>150</v>
       </c>
-      <c r="I26" t="s">
+      <c r="M26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B27">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SIEGE_TOWER" /&gt;&lt;Set Cost="85"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K27" t="s">
         <v>122</v>
       </c>
-      <c r="H27">
+      <c r="L27">
         <v>150</v>
       </c>
-      <c r="I27" t="s">
+      <c r="M27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B28">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MACEDONIAN_HYPASPIST" /&gt;&lt;Set Cost="85"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K28" t="s">
         <v>124</v>
       </c>
-      <c r="H28">
+      <c r="L28">
         <v>150</v>
       </c>
-      <c r="I28" t="s">
+      <c r="M28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B29">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MACEDONIAN_HETAIROI" /&gt;&lt;Set Cost="85"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K29" t="s">
         <v>126</v>
       </c>
-      <c r="H29">
+      <c r="L29">
         <v>150</v>
       </c>
-      <c r="I29" t="s">
+      <c r="M29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B30">
         <v>100</v>
@@ -3825,26 +3625,39 @@
         <v>16</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D30:D59" si="3">ROUND(B30*D$1/5,0)*5</f>
         <v>80</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E30:E59" si="4">ROUND(B30*E$1/5,0)*5</f>
         <v>85</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_PERSIAN_IMMORTAL" /&gt;&lt;Set Cost="85"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K30" t="s">
         <v>128</v>
       </c>
-      <c r="H30">
+      <c r="L30">
         <v>190</v>
       </c>
-      <c r="I30" t="s">
+      <c r="M30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B31">
         <v>100</v>
@@ -3853,222 +3666,326 @@
         <v>16</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_LAHORE_NIHANG" /&gt;&lt;Set Cost="85"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K31" t="s">
         <v>130</v>
       </c>
-      <c r="H31">
+      <c r="L31">
         <v>190</v>
       </c>
-      <c r="I31" t="s">
+      <c r="M31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>85</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ROMAN_LEGION" /&gt;&lt;Set Cost="95"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K32" t="s">
         <v>132</v>
       </c>
-      <c r="H32">
+      <c r="L32">
         <v>190</v>
       </c>
-      <c r="I32" t="s">
+      <c r="M32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>85</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_KONGO_SHIELD_BEARER" /&gt;&lt;Set Cost="95"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K33" t="s">
         <v>134</v>
       </c>
-      <c r="H33">
+      <c r="L33">
         <v>190</v>
       </c>
-      <c r="I33" t="s">
+      <c r="M33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_CATAPULT" /&gt;&lt;Set Cost="105"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K34" t="s">
         <v>136</v>
       </c>
-      <c r="H34">
+      <c r="L34">
         <v>190</v>
       </c>
-      <c r="I34" t="s">
+      <c r="M34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:D66" si="2">ROUND(B35*D$1/5,0)*5</f>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:E66" si="3">ROUND(B35*E$1/5,0)*5</f>
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_QUADRIREME" /&gt;&lt;Set Cost="105"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K35" t="s">
         <v>138</v>
       </c>
-      <c r="H35">
+      <c r="L35">
         <v>190</v>
       </c>
-      <c r="I35" t="s">
+      <c r="M35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B36">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="str">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="G36" t="s">
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_INDIAN_VARU" /&gt;&lt;Set Cost="105"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K36" t="s">
         <v>140</v>
       </c>
-      <c r="H36">
+      <c r="L36">
         <v>190</v>
       </c>
-      <c r="I36" t="s">
+      <c r="M36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B37">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="E37">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MAORI_TOA" /&gt;&lt;Set Cost="105"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K37" t="s">
         <v>142</v>
       </c>
-      <c r="H37">
+      <c r="L37">
         <v>190</v>
       </c>
-      <c r="I37" t="s">
+      <c r="M37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B38">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="E38">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SULEIMAN_JANISSARY" /&gt;&lt;Set Cost="105"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K38" t="s">
         <v>144</v>
       </c>
-      <c r="H38">
+      <c r="L38">
         <v>190</v>
       </c>
-      <c r="I38" t="s">
+      <c r="M38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B39">
         <v>120</v>
@@ -4077,2198 +3994,3574 @@
         <v>16</v>
       </c>
       <c r="D39">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" t="str">
         <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="G39" t="s">
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BYZANTINE_DROMON" /&gt;&lt;Set Cost="105"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K39" t="s">
         <v>146</v>
       </c>
-      <c r="H39">
+      <c r="L39">
         <v>195</v>
       </c>
-      <c r="I39" t="s">
+      <c r="M39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B40">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" t="str">
         <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="G40" t="s">
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ZULU_IMPI" /&gt;&lt;Set Cost="110"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K40" t="s">
         <v>148</v>
       </c>
-      <c r="H40">
+      <c r="L40">
         <v>195</v>
       </c>
-      <c r="I40" t="s">
+      <c r="M40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B41">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="G41" t="s">
-        <v>150</v>
-      </c>
-      <c r="H41">
-        <v>200</v>
-      </c>
-      <c r="I41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42">
-        <v>120</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="G42" t="s">
-        <v>152</v>
-      </c>
-      <c r="H42">
-        <v>217</v>
-      </c>
-      <c r="I42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43">
-        <v>120</v>
-      </c>
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="G43" t="s">
-        <v>154</v>
-      </c>
-      <c r="H43">
-        <v>220</v>
-      </c>
-      <c r="I43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44">
-        <v>120</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="G44" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44">
-        <v>220</v>
-      </c>
-      <c r="I44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45">
-        <v>120</v>
-      </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="G45" t="s">
-        <v>158</v>
-      </c>
-      <c r="H45">
-        <v>250</v>
-      </c>
-      <c r="I45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46">
-        <v>125</v>
-      </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="E46">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_CHINESE_CROUCHING_TIGER" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K41" t="s">
+        <v>150</v>
+      </c>
+      <c r="L41">
+        <v>200</v>
+      </c>
+      <c r="M41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SKIRMISHER" /&gt;&lt;Set Cost="130"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K42" t="s">
+        <v>152</v>
+      </c>
+      <c r="L42">
+        <v>217</v>
+      </c>
+      <c r="M42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_JAPANESE_SAMURAI" /&gt;&lt;Set Cost="140"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K43" t="s">
+        <v>154</v>
+      </c>
+      <c r="L43">
+        <v>220</v>
+      </c>
+      <c r="M43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_NORWEGIAN_BERSERKER" /&gt;&lt;Set Cost="140"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K44" t="s">
+        <v>156</v>
+      </c>
+      <c r="L44">
+        <v>220</v>
+      </c>
+      <c r="M44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45">
+        <v>160</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MAN_AT_ARMS" /&gt;&lt;Set Cost="140"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K45" t="s">
+        <v>158</v>
+      </c>
+      <c r="L45">
+        <v>250</v>
+      </c>
+      <c r="M45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46">
+        <v>160</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MONGOLIAN_KESHIG" /&gt;&lt;Set Cost="140"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K46" t="s">
         <v>160</v>
       </c>
-      <c r="H46">
+      <c r="L46">
         <v>250</v>
       </c>
-      <c r="I46" t="s">
+      <c r="M46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B47">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
       </c>
       <c r="D47">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" t="str">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="G47" t="s">
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_GEORGIAN_KHEVSURETI" /&gt;&lt;Set Cost="140"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K47" t="s">
         <v>162</v>
       </c>
-      <c r="H47">
+      <c r="L47">
         <v>250</v>
       </c>
-      <c r="I47" t="s">
+      <c r="M47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B48">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="E48">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
+      <c r="E48">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_INCA_WARAKAQ" /&gt;&lt;Set Cost="145"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K48" t="s">
         <v>164</v>
       </c>
-      <c r="H48">
+      <c r="L48">
         <v>260</v>
       </c>
-      <c r="I48" t="s">
+      <c r="M48" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B49">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
       </c>
       <c r="D49">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" t="str">
         <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="E49">
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MILITARY_ENGINEER" /&gt;&lt;Set Cost="150"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K49" t="s">
+        <v>166</v>
+      </c>
+      <c r="L49">
+        <v>290</v>
+      </c>
+      <c r="M49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50">
+        <v>180</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="G49" t="s">
-        <v>166</v>
-      </c>
-      <c r="H49">
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_CROSSBOWMAN" /&gt;&lt;Set Cost="155"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K50" t="s">
+        <v>168</v>
+      </c>
+      <c r="L50">
         <v>290</v>
       </c>
-      <c r="I49" t="s">
+      <c r="M50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50">
-        <v>160</v>
-      </c>
-      <c r="C50" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
         <v>18</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="E50">
+      <c r="D51">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="G50" t="s">
-        <v>168</v>
-      </c>
-      <c r="H50">
+      <c r="E51">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_PIKEMAN" /&gt;&lt;Set Cost="155"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K51" t="s">
+        <v>170</v>
+      </c>
+      <c r="L51">
         <v>290</v>
       </c>
-      <c r="I50" t="s">
+      <c r="M51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51">
-        <v>160</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="G51" t="s">
-        <v>170</v>
-      </c>
-      <c r="H51">
-        <v>290</v>
-      </c>
-      <c r="I51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B52">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
       </c>
       <c r="D52">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" t="str">
         <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="G52" t="s">
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_TREBUCHET" /&gt;&lt;Set Cost="175"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K52" t="s">
         <v>172</v>
       </c>
-      <c r="H52">
+      <c r="L52">
         <v>290</v>
       </c>
-      <c r="I52" t="s">
+      <c r="M52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B53">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
       </c>
       <c r="D53">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" t="str">
         <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="G53" t="s">
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_KHMER_DOMREY" /&gt;&lt;Set Cost="175"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K53" t="s">
         <v>174</v>
       </c>
-      <c r="H53">
+      <c r="L53">
         <v>290</v>
       </c>
-      <c r="I53" t="s">
+      <c r="M53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B54">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
       </c>
       <c r="D54">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" t="str">
         <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="3"/>
-        <v>145</v>
-      </c>
-      <c r="G54" t="s">
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_COURSER" /&gt;&lt;Set Cost="175"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K54" t="s">
         <v>176</v>
       </c>
-      <c r="H54">
+      <c r="L54">
         <v>290</v>
       </c>
-      <c r="I54" t="s">
+      <c r="M54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B55">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
       </c>
       <c r="D55">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" t="str">
         <f t="shared" si="2"/>
-        <v>135</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="G55" t="s">
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_VIETNAMESE_VOI_CHIEN" /&gt;&lt;Set Cost="175"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K55" t="s">
         <v>178</v>
       </c>
-      <c r="H55">
+      <c r="L55">
         <v>290</v>
       </c>
-      <c r="I55" t="s">
+      <c r="M55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B56">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
       <c r="D56">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="E56">
         <f t="shared" si="3"/>
         <v>155</v>
       </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ETHIOPIAN_OROMO_CAVALRY" /&gt;&lt;Set Cost="175"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K56" t="s">
         <v>180</v>
       </c>
-      <c r="H56">
+      <c r="L56">
         <v>290</v>
       </c>
-      <c r="I56" t="s">
+      <c r="M56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B57">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
       </c>
       <c r="D57">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" t="str">
         <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="3"/>
-        <v>155</v>
-      </c>
-      <c r="G57" t="s">
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_HUNGARY_BLACK_ARMY" /&gt;&lt;Set Cost="180"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K57" t="s">
         <v>182</v>
       </c>
-      <c r="H57">
+      <c r="L57">
         <v>290</v>
       </c>
-      <c r="I57" t="s">
+      <c r="M57" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B58">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
       </c>
       <c r="D58">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" t="str">
         <f t="shared" si="2"/>
-        <v>155</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="3"/>
-        <v>175</v>
-      </c>
-      <c r="G58" t="s">
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_KNIGHT" /&gt;&lt;Set Cost="190"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K58" t="s">
         <v>184</v>
       </c>
-      <c r="H58">
+      <c r="L58">
         <v>300</v>
       </c>
-      <c r="I58" t="s">
+      <c r="M58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B59">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
       </c>
       <c r="D59">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" t="str">
         <f t="shared" si="2"/>
-        <v>155</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="3"/>
-        <v>175</v>
-      </c>
-      <c r="G59" t="s">
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ARABIAN_MAMLUK" /&gt;&lt;Set Cost="190"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K59" t="s">
         <v>186</v>
       </c>
-      <c r="H59">
+      <c r="L59">
         <v>300</v>
       </c>
-      <c r="I59" t="s">
+      <c r="M59" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B60">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
       </c>
       <c r="D60">
-        <f t="shared" si="2"/>
-        <v>155</v>
+        <f t="shared" ref="D60:D89" si="5">ROUND(B60*D$1/5,0)*5</f>
+        <v>170</v>
       </c>
       <c r="E60">
-        <f t="shared" si="3"/>
-        <v>175</v>
+        <f t="shared" ref="E60:E89" si="6">ROUND(B60*E$1/5,0)*5</f>
+        <v>190</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" ref="I60:I120" si="7">_xlfn.CONCAT(F60,A60,G60,E60,H60)</f>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MALI_MANDEKALU_CAVALRY" /&gt;&lt;Set Cost="190"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K60" t="s">
         <v>188</v>
       </c>
-      <c r="H60">
+      <c r="L60">
         <v>330</v>
       </c>
-      <c r="I60" t="s">
+      <c r="M60" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B61">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
       </c>
       <c r="D61">
-        <f t="shared" si="2"/>
-        <v>155</v>
+        <f t="shared" si="5"/>
+        <v>170</v>
       </c>
       <c r="E61">
-        <f t="shared" si="3"/>
-        <v>175</v>
+        <f t="shared" si="6"/>
+        <v>190</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>3</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BYZANTINE_TAGMA" /&gt;&lt;Set Cost="190"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K61" t="s">
         <v>190</v>
       </c>
-      <c r="H61">
+      <c r="L61">
         <v>330</v>
       </c>
-      <c r="I61" t="s">
+      <c r="M61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B62">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
       </c>
       <c r="D62">
-        <f t="shared" si="2"/>
-        <v>155</v>
+        <f t="shared" si="5"/>
+        <v>175</v>
       </c>
       <c r="E62">
-        <f t="shared" si="3"/>
-        <v>175</v>
+        <f t="shared" si="6"/>
+        <v>195</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SPY" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K62" t="s">
         <v>192</v>
       </c>
-      <c r="H62">
+      <c r="L62">
         <v>330</v>
       </c>
-      <c r="I62" t="s">
+      <c r="M62" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B63">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63">
-        <f t="shared" si="2"/>
-        <v>155</v>
+        <f t="shared" si="5"/>
+        <v>180</v>
       </c>
       <c r="E63">
-        <f t="shared" si="3"/>
-        <v>175</v>
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>3</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MAPUCHE_MALON_RAIDER" /&gt;&lt;Set Cost="200"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K63" t="s">
         <v>194</v>
       </c>
-      <c r="H63">
+      <c r="L63">
         <v>330</v>
       </c>
-      <c r="I63" t="s">
+      <c r="M63" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B64">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G64" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MUSKETMAN" /&gt;&lt;Set Cost="210"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K64" t="s">
+        <v>196</v>
+      </c>
+      <c r="L64">
+        <v>360</v>
+      </c>
+      <c r="M64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>211</v>
+      </c>
+      <c r="B65">
+        <v>240</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G65" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_CARAVEL" /&gt;&lt;Set Cost="210"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K65" t="s">
+        <v>198</v>
+      </c>
+      <c r="L65">
+        <v>360</v>
+      </c>
+      <c r="M65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66">
+        <v>240</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G66" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_OBSERVATION_BALLOON" /&gt;&lt;Set Cost="210"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K66" t="s">
+        <v>200</v>
+      </c>
+      <c r="L66">
+        <v>360</v>
+      </c>
+      <c r="M66" t="s">
         <v>18</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="G64" t="s">
-        <v>196</v>
-      </c>
-      <c r="H64">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67">
+        <v>240</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_OTTOMAN_BARBARY_CORSAIR" /&gt;&lt;Set Cost="210"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K67" t="s">
+        <v>202</v>
+      </c>
+      <c r="L67">
         <v>360</v>
       </c>
-      <c r="I64" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>197</v>
-      </c>
-      <c r="B65">
-        <v>220</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="M67" t="s">
         <v>18</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="3"/>
-        <v>190</v>
-      </c>
-      <c r="G65" t="s">
-        <v>198</v>
-      </c>
-      <c r="H65">
-        <v>360</v>
-      </c>
-      <c r="I65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>199</v>
-      </c>
-      <c r="B66">
-        <v>220</v>
-      </c>
-      <c r="C66" t="s">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68">
+        <v>240</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G68" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_PORTUGUESE_NAU" /&gt;&lt;Set Cost="210"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K68" t="s">
+        <v>204</v>
+      </c>
+      <c r="L68">
+        <v>380</v>
+      </c>
+      <c r="M68" t="s">
         <v>18</v>
       </c>
-      <c r="D66">
-        <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="3"/>
-        <v>190</v>
-      </c>
-      <c r="G66" t="s">
-        <v>200</v>
-      </c>
-      <c r="H66">
-        <v>360</v>
-      </c>
-      <c r="I66" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>201</v>
-      </c>
-      <c r="B67">
-        <v>220</v>
-      </c>
-      <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D98" si="4">ROUND(B67*D$1/5,0)*5</f>
-        <v>170</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E98" si="5">ROUND(B67*E$1/5,0)*5</f>
-        <v>190</v>
-      </c>
-      <c r="G67" t="s">
-        <v>202</v>
-      </c>
-      <c r="H67">
-        <v>360</v>
-      </c>
-      <c r="I67" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
-        <v>203</v>
-      </c>
-      <c r="B68">
-        <v>220</v>
-      </c>
-      <c r="C68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="4"/>
-        <v>170</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="5"/>
-        <v>190</v>
-      </c>
-      <c r="G68" t="s">
-        <v>204</v>
-      </c>
-      <c r="H68">
-        <v>380</v>
-      </c>
-      <c r="I68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B69">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D69">
-        <f t="shared" si="4"/>
-        <v>175</v>
-      </c>
-      <c r="E69">
         <f t="shared" si="5"/>
         <v>195</v>
       </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G69" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" t="s">
+        <v>3</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SPANISH_CONQUISTADOR" /&gt;&lt;Set Cost="220"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K69" t="s">
         <v>206</v>
       </c>
-      <c r="H69">
+      <c r="L69">
         <v>380</v>
       </c>
-      <c r="I69" t="s">
+      <c r="M69" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B70">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="5"/>
+        <v>195</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_KOREAN_HWACHA" /&gt;&lt;Set Cost="220"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K70" t="s">
+        <v>208</v>
+      </c>
+      <c r="L70">
+        <v>440</v>
+      </c>
+      <c r="M70" t="s">
         <v>18</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="G70" t="s">
-        <v>208</v>
-      </c>
-      <c r="H70">
-        <v>440</v>
-      </c>
-      <c r="I70" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B71">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C71" t="s">
         <v>20</v>
       </c>
       <c r="D71">
-        <f t="shared" si="4"/>
-        <v>185</v>
+        <f t="shared" si="5"/>
+        <v>195</v>
       </c>
       <c r="E71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G71" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>3</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_PIKE_AND_SHOT" /&gt;&lt;Set Cost="220"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K71" t="s">
         <v>210</v>
       </c>
-      <c r="G71" t="s">
-        <v>210</v>
-      </c>
-      <c r="H71">
+      <c r="L71">
         <v>440</v>
       </c>
-      <c r="I71" t="s">
+      <c r="M71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B72">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C72" t="s">
         <v>20</v>
       </c>
       <c r="D72">
-        <f t="shared" si="4"/>
-        <v>185</v>
+        <f t="shared" si="5"/>
+        <v>195</v>
       </c>
       <c r="E72">
-        <f t="shared" si="5"/>
-        <v>210</v>
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G72" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SWEDEN_CAROLEAN" /&gt;&lt;Set Cost="220"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K72" t="s">
         <v>212</v>
       </c>
-      <c r="H72">
+      <c r="L72">
         <v>440</v>
       </c>
-      <c r="I72" t="s">
+      <c r="M72" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B73">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
       </c>
       <c r="D73">
-        <f t="shared" si="4"/>
-        <v>185</v>
+        <f t="shared" si="5"/>
+        <v>220</v>
       </c>
       <c r="E73">
-        <f t="shared" si="5"/>
-        <v>210</v>
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G73" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BOMBARD" /&gt;&lt;Set Cost="245"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K73" t="s">
         <v>214</v>
       </c>
-      <c r="H73">
+      <c r="L73">
         <v>440</v>
       </c>
-      <c r="I73" t="s">
+      <c r="M73" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B74">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74">
-        <f t="shared" si="4"/>
-        <v>185</v>
+        <f t="shared" si="5"/>
+        <v>220</v>
       </c>
       <c r="E74">
-        <f t="shared" si="5"/>
-        <v>210</v>
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G74" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" t="s">
+        <v>3</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_FRIGATE" /&gt;&lt;Set Cost="245"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K74" t="s">
         <v>216</v>
       </c>
-      <c r="H74">
+      <c r="L74">
         <v>440</v>
       </c>
-      <c r="I74" t="s">
+      <c r="M74" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B75">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="C75" t="s">
         <v>20</v>
       </c>
       <c r="D75">
-        <f t="shared" si="4"/>
-        <v>185</v>
+        <f t="shared" si="5"/>
+        <v>220</v>
       </c>
       <c r="E75">
-        <f t="shared" si="5"/>
-        <v>210</v>
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G75" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_PRIVATEER" /&gt;&lt;Set Cost="245"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K75" t="s">
         <v>218</v>
       </c>
-      <c r="H75">
+      <c r="L75">
         <v>440</v>
       </c>
-      <c r="I75" t="s">
+      <c r="M75" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B76">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="C76" t="s">
         <v>20</v>
       </c>
       <c r="D76">
-        <f t="shared" si="4"/>
-        <v>195</v>
-      </c>
-      <c r="E76">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G76" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ENGLISH_SEADOG" /&gt;&lt;Set Cost="245"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K76" t="s">
         <v>220</v>
       </c>
-      <c r="H76">
+      <c r="L76">
         <v>440</v>
       </c>
-      <c r="I76" t="s">
+      <c r="M76" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B77">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="C77" t="s">
         <v>20</v>
       </c>
       <c r="D77">
-        <f t="shared" si="4"/>
-        <v>195</v>
-      </c>
-      <c r="E77">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G77" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" t="s">
+        <v>3</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_DE_ZEVEN_PROVINCIEN" /&gt;&lt;Set Cost="245"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K77" t="s">
         <v>222</v>
       </c>
-      <c r="H77">
+      <c r="L77">
         <v>440</v>
       </c>
-      <c r="I77" t="s">
+      <c r="M77" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B78">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="C78" t="s">
         <v>20</v>
       </c>
       <c r="D78">
-        <f t="shared" si="4"/>
-        <v>195</v>
+        <f t="shared" si="5"/>
+        <v>225</v>
       </c>
       <c r="E78">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G78" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78" t="s">
+        <v>3</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_CANADA_MOUNTIE" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K78" t="s">
+        <v>224</v>
+      </c>
+      <c r="L78">
+        <v>440</v>
+      </c>
+      <c r="M78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>237</v>
+      </c>
+      <c r="B79">
+        <v>300</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79">
         <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-      <c r="G78" t="s">
-        <v>224</v>
-      </c>
-      <c r="H78">
-        <v>440</v>
-      </c>
-      <c r="I78" t="s">
+        <v>235</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>260</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G79" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_INDONESIAN_JONG" /&gt;&lt;Set Cost="260"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K79" t="s">
+        <v>226</v>
+      </c>
+      <c r="L79">
+        <v>480</v>
+      </c>
+      <c r="M79" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" t="s">
-        <v>225</v>
-      </c>
-      <c r="B79">
-        <v>250</v>
-      </c>
-      <c r="C79" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="4"/>
-        <v>195</v>
-      </c>
-      <c r="E79">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>239</v>
+      </c>
+      <c r="B80">
+        <v>330</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80">
         <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-      <c r="G79" t="s">
-        <v>226</v>
-      </c>
-      <c r="H79">
+        <v>255</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="6"/>
+        <v>285</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G80" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_FIELD_CANNON" /&gt;&lt;Set Cost="285"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K80" t="s">
+        <v>228</v>
+      </c>
+      <c r="L80">
         <v>480</v>
       </c>
-      <c r="I79" t="s">
+      <c r="M80" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
-        <v>227</v>
-      </c>
-      <c r="B80">
-        <v>280</v>
-      </c>
-      <c r="C80" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="4"/>
-        <v>220</v>
-      </c>
-      <c r="E80">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81">
+        <v>330</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81">
         <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="6"/>
+        <v>285</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G81" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_CAVALRY" /&gt;&lt;Set Cost="285"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K81" t="s">
+        <v>230</v>
+      </c>
+      <c r="L81">
+        <v>480</v>
+      </c>
+      <c r="M81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>241</v>
+      </c>
+      <c r="B82">
+        <v>330</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="6"/>
+        <v>285</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G82" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" t="s">
+        <v>3</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_POLISH_HUSSAR" /&gt;&lt;Set Cost="285"/&gt;&lt;/Update&gt;</v>
+      </c>
+      <c r="K82" t="s">
+        <v>232</v>
+      </c>
+      <c r="L82">
+        <v>480</v>
+      </c>
+      <c r="M82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83">
+        <v>330</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="6"/>
+        <v>285</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_CUIRASSIER" /&gt;&lt;Set Cost="285"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84">
+        <v>330</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="6"/>
+        <v>285</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G84" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" t="s">
+        <v>3</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_COLOMBIAN_LLANERO" /&gt;&lt;Set Cost="285"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85">
+        <v>335</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G85" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" t="s">
+        <v>3</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_HUNGARY_HUSZAR" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>245</v>
       </c>
-      <c r="G80" t="s">
-        <v>228</v>
-      </c>
-      <c r="H80">
-        <v>480</v>
-      </c>
-      <c r="I80" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" t="s">
-        <v>229</v>
-      </c>
-      <c r="B81">
-        <v>280</v>
-      </c>
-      <c r="C81" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="4"/>
-        <v>220</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="5"/>
-        <v>245</v>
-      </c>
-      <c r="G81" t="s">
-        <v>230</v>
-      </c>
-      <c r="H81">
-        <v>480</v>
-      </c>
-      <c r="I81" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" t="s">
-        <v>231</v>
-      </c>
-      <c r="B82">
-        <v>280</v>
-      </c>
-      <c r="C82" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="4"/>
-        <v>220</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="5"/>
-        <v>245</v>
-      </c>
-      <c r="G82" t="s">
-        <v>232</v>
-      </c>
-      <c r="H82">
-        <v>480</v>
-      </c>
-      <c r="I82" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>233</v>
-      </c>
-      <c r="B83">
-        <v>280</v>
-      </c>
-      <c r="C83" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="4"/>
-        <v>220</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="5"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>234</v>
-      </c>
-      <c r="B84">
-        <v>280</v>
-      </c>
-      <c r="C84" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="4"/>
-        <v>220</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="5"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>235</v>
-      </c>
-      <c r="B85">
-        <v>290</v>
-      </c>
-      <c r="C85" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="5"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>236</v>
-      </c>
       <c r="B86">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="C86" t="s">
         <v>22</v>
       </c>
       <c r="D86">
-        <f t="shared" si="4"/>
-        <v>235</v>
+        <f t="shared" si="5"/>
+        <v>265</v>
       </c>
       <c r="E86">
-        <f t="shared" si="5"/>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>295</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G86" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" t="s">
+        <v>3</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_RUSSIAN_COSSACK" /&gt;&lt;Set Cost="295"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B87">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="C87" t="s">
         <v>22</v>
       </c>
       <c r="D87">
-        <f t="shared" si="4"/>
-        <v>235</v>
+        <f t="shared" si="5"/>
+        <v>280</v>
       </c>
       <c r="E87">
-        <f t="shared" si="5"/>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>315</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G87" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ENGLISH_REDCOAT" /&gt;&lt;Set Cost="315"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B88">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="C88" t="s">
         <v>22</v>
       </c>
       <c r="D88">
-        <f t="shared" si="4"/>
-        <v>235</v>
+        <f t="shared" si="5"/>
+        <v>280</v>
       </c>
       <c r="E88">
-        <f t="shared" si="5"/>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>315</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G88" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_FRENCH_GARDE_IMPERIALE" /&gt;&lt;Set Cost="315"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B89">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="C89" t="s">
         <v>22</v>
       </c>
       <c r="D89">
-        <f t="shared" si="4"/>
-        <v>255</v>
+        <f t="shared" si="5"/>
+        <v>280</v>
       </c>
       <c r="E89">
-        <f t="shared" si="5"/>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>315</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G89" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_LINE_INFANTRY" /&gt;&lt;Set Cost="315"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B90">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
       </c>
       <c r="D90">
-        <f t="shared" si="4"/>
-        <v>255</v>
+        <f t="shared" ref="D90:D120" si="8">ROUND(B90*D$1/5,0)*5</f>
+        <v>290</v>
       </c>
       <c r="E90">
-        <f t="shared" si="5"/>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <f t="shared" ref="E90:E120" si="9">ROUND(B90*E$1/5,0)*5</f>
+        <v>320</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G90" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" t="s">
+        <v>3</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MEDIC" /&gt;&lt;Set Cost="320"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B91">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="C91" t="s">
         <v>22</v>
       </c>
       <c r="D91">
-        <f t="shared" si="4"/>
-        <v>255</v>
+        <f t="shared" si="8"/>
+        <v>295</v>
       </c>
       <c r="E91">
-        <f t="shared" si="5"/>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <f t="shared" si="9"/>
+        <v>330</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_IRONCLAD" /&gt;&lt;Set Cost="330"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B92">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="C92" t="s">
         <v>22</v>
       </c>
       <c r="D92">
-        <f t="shared" si="4"/>
-        <v>255</v>
+        <f t="shared" si="8"/>
+        <v>295</v>
       </c>
       <c r="E92">
-        <f t="shared" si="5"/>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <f t="shared" si="9"/>
+        <v>330</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G92" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" t="s">
+        <v>3</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_RANGER" /&gt;&lt;Set Cost="330"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B93">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="C93" t="s">
         <v>22</v>
       </c>
       <c r="D93">
-        <f t="shared" si="4"/>
-        <v>255</v>
+        <f t="shared" si="8"/>
+        <v>295</v>
       </c>
       <c r="E93">
-        <f t="shared" si="5"/>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <f t="shared" si="9"/>
+        <v>330</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G93" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" t="s">
+        <v>3</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SCOTTISH_HIGHLANDER" /&gt;&lt;Set Cost="330"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B94">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="C94" t="s">
         <v>22</v>
       </c>
       <c r="D94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="9"/>
+        <v>335</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G94" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_AMERICAN_ROUGH_RIDER" /&gt;&lt;Set Cost="335"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95">
+        <v>400</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="8"/>
+        <v>310</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="9"/>
+        <v>350</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" t="s">
+        <v>3</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_AT_CREW" /&gt;&lt;Set Cost="350"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>256</v>
+      </c>
+      <c r="B96">
+        <v>420</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="8"/>
+        <v>330</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="9"/>
+        <v>365</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G96" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" t="s">
+        <v>3</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_DRONE" /&gt;&lt;Set Cost="365"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>257</v>
+      </c>
+      <c r="B97">
+        <v>430</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="8"/>
+        <v>335</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G97" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" t="s">
+        <v>3</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BIPLANE" /&gt;&lt;Set Cost="375"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>258</v>
+      </c>
+      <c r="B98">
+        <v>430</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="8"/>
+        <v>335</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G98" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" t="s">
+        <v>3</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_INFANTRY" /&gt;&lt;Set Cost="375"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>259</v>
+      </c>
+      <c r="B99">
+        <v>430</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="8"/>
+        <v>335</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G99" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99" t="s">
+        <v>3</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ARTILLERY" /&gt;&lt;Set Cost="375"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>260</v>
       </c>
-      <c r="E94">
-        <f t="shared" si="5"/>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>245</v>
-      </c>
-      <c r="B95">
-        <v>340</v>
-      </c>
-      <c r="C95" t="s">
-        <v>22</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="4"/>
-        <v>265</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="5"/>
-        <v>295</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>246</v>
-      </c>
-      <c r="B96">
-        <v>360</v>
-      </c>
-      <c r="C96" t="s">
-        <v>22</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="4"/>
-        <v>280</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="5"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>247</v>
-      </c>
-      <c r="B97">
-        <v>360</v>
-      </c>
-      <c r="C97" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="4"/>
-        <v>280</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="5"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>248</v>
-      </c>
-      <c r="B98">
-        <v>360</v>
-      </c>
-      <c r="C98" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="4"/>
-        <v>280</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="5"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>249</v>
-      </c>
-      <c r="B99">
-        <v>370</v>
-      </c>
-      <c r="C99" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99">
-        <f t="shared" ref="D99:D130" si="6">ROUND(B99*D$1/5,0)*5</f>
-        <v>290</v>
-      </c>
-      <c r="E99">
-        <f t="shared" ref="E99:E130" si="7">ROUND(B99*E$1/5,0)*5</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>250</v>
-      </c>
       <c r="B100">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D100">
-        <f t="shared" si="6"/>
-        <v>295</v>
+        <f t="shared" si="8"/>
+        <v>335</v>
       </c>
       <c r="E100">
-        <f t="shared" si="7"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BATTLESHIP" /&gt;&lt;Set Cost="375"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B101">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D101">
-        <f t="shared" si="6"/>
-        <v>295</v>
+        <f t="shared" si="8"/>
+        <v>335</v>
       </c>
       <c r="E101">
-        <f t="shared" si="7"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BRAZILIAN_MINAS_GERAES" /&gt;&lt;Set Cost="375"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B102">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D102">
-        <f t="shared" si="6"/>
-        <v>295</v>
+        <f t="shared" si="8"/>
+        <v>335</v>
       </c>
       <c r="E102">
-        <f t="shared" si="7"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_GERMAN_UBOAT" /&gt;&lt;Set Cost="375"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B103">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D103">
-        <f t="shared" si="6"/>
-        <v>300</v>
+        <f t="shared" si="8"/>
+        <v>335</v>
       </c>
       <c r="E103">
-        <f t="shared" si="7"/>
-        <v>335</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" t="s">
+        <v>3</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_DIGGER" /&gt;&lt;Set Cost="375"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B104">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="C104" t="s">
         <v>18</v>
       </c>
       <c r="D104">
-        <f t="shared" si="6"/>
-        <v>310</v>
+        <f t="shared" si="8"/>
+        <v>350</v>
       </c>
       <c r="E104">
-        <f t="shared" si="7"/>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <f t="shared" si="9"/>
+        <v>390</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G104" t="s">
+        <v>2</v>
+      </c>
+      <c r="H104" t="s">
+        <v>3</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SUPPLY_CONVOY" /&gt;&lt;Set Cost="390"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B105">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="C105" t="s">
         <v>18</v>
       </c>
       <c r="D105">
-        <f t="shared" si="6"/>
-        <v>310</v>
+        <f t="shared" si="8"/>
+        <v>355</v>
       </c>
       <c r="E105">
-        <f t="shared" si="7"/>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <f t="shared" si="9"/>
+        <v>395</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G105" t="s">
+        <v>2</v>
+      </c>
+      <c r="H105" t="s">
+        <v>3</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ANTIAIR_GUN" /&gt;&lt;Set Cost="395"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B106">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
       </c>
       <c r="D106">
-        <f t="shared" si="6"/>
-        <v>330</v>
+        <f t="shared" si="8"/>
+        <v>375</v>
       </c>
       <c r="E106">
-        <f t="shared" si="7"/>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <f t="shared" si="9"/>
+        <v>420</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G106" t="s">
+        <v>2</v>
+      </c>
+      <c r="H106" t="s">
+        <v>3</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SUBMARINE" /&gt;&lt;Set Cost="420"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B107">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="C107" t="s">
         <v>18</v>
       </c>
       <c r="D107">
-        <f t="shared" si="6"/>
-        <v>335</v>
+        <f t="shared" si="8"/>
+        <v>375</v>
       </c>
       <c r="E107">
-        <f t="shared" si="7"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <f t="shared" si="9"/>
+        <v>420</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G107" t="s">
+        <v>2</v>
+      </c>
+      <c r="H107" t="s">
+        <v>3</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_TANK" /&gt;&lt;Set Cost="420"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B108">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="C108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="8"/>
+        <v>405</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="9"/>
+        <v>450</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G108" t="s">
+        <v>2</v>
+      </c>
+      <c r="H108" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_FIGHTER" /&gt;&lt;Set Cost="450"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109">
+        <v>520</v>
+      </c>
+      <c r="C109" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="8"/>
+        <v>405</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="9"/>
+        <v>450</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G109" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" t="s">
+        <v>3</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_AMERICAN_P51" /&gt;&lt;Set Cost="450"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>270</v>
+      </c>
+      <c r="B110">
+        <v>520</v>
+      </c>
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="8"/>
+        <v>405</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="9"/>
+        <v>450</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G110" t="s">
+        <v>2</v>
+      </c>
+      <c r="H110" t="s">
+        <v>3</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SPEC_OPS" /&gt;&lt;Set Cost="450"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>271</v>
+      </c>
+      <c r="B111">
+        <v>540</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="8"/>
+        <v>420</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="9"/>
+        <v>470</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G111" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" t="s">
+        <v>3</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MACHINE_GUN" /&gt;&lt;Set Cost="470"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>272</v>
+      </c>
+      <c r="B112">
+        <v>540</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="8"/>
+        <v>420</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="9"/>
+        <v>470</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H112" t="s">
+        <v>3</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_AIRCRAFT_CARRIER" /&gt;&lt;Set Cost="470"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113">
+        <v>540</v>
+      </c>
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="8"/>
+        <v>420</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="9"/>
+        <v>470</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G113" t="s">
+        <v>2</v>
+      </c>
+      <c r="H113" t="s">
+        <v>3</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_DESTROYER" /&gt;&lt;Set Cost="470"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>274</v>
+      </c>
+      <c r="B114">
+        <v>560</v>
+      </c>
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="8"/>
+        <v>435</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="9"/>
+        <v>485</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G114" t="s">
+        <v>2</v>
+      </c>
+      <c r="H114" t="s">
+        <v>3</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BOMBER" /&gt;&lt;Set Cost="485"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>275</v>
+      </c>
+      <c r="B115">
+        <v>580</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="8"/>
+        <v>450</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="9"/>
+        <v>505</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G115" t="s">
+        <v>2</v>
+      </c>
+      <c r="H115" t="s">
+        <v>3</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MODERN_AT" /&gt;&lt;Set Cost="505"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116">
+        <v>590</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="8"/>
+        <v>460</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="9"/>
+        <v>515</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G116" t="s">
+        <v>2</v>
+      </c>
+      <c r="H116" t="s">
+        <v>3</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MOBILE_SAM" /&gt;&lt;Set Cost="515"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117">
+        <v>600</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="8"/>
+        <v>470</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="9"/>
+        <v>520</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G117" t="s">
+        <v>2</v>
+      </c>
+      <c r="H117" t="s">
+        <v>3</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_HELICOPTER" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>278</v>
+      </c>
+      <c r="B118">
+        <v>650</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="8"/>
+        <v>505</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="9"/>
+        <v>565</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G118" t="s">
+        <v>2</v>
+      </c>
+      <c r="H118" t="s">
+        <v>3</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MECHANIZED_INFANTRY" /&gt;&lt;Set Cost="565"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>279</v>
+      </c>
+      <c r="B119">
+        <v>650</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="8"/>
+        <v>505</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="9"/>
+        <v>565</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G119" t="s">
+        <v>2</v>
+      </c>
+      <c r="H119" t="s">
+        <v>3</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_JET_FIGHTER" /&gt;&lt;Set Cost="565"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>280</v>
+      </c>
+      <c r="B120">
+        <v>680</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="8"/>
+        <v>530</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="9"/>
+        <v>590</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G120" t="s">
+        <v>2</v>
+      </c>
+      <c r="H120" t="s">
+        <v>3</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_NUCLEAR_SUBMARINE" /&gt;&lt;Set Cost="590"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>281</v>
+      </c>
+      <c r="B121">
+        <v>680</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121">
+        <f>ROUND(B121*D$1/5,0)*5</f>
+        <v>530</v>
+      </c>
+      <c r="E121">
+        <f>ROUND(B121*E$1/5,0)*5</f>
+        <v>590</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G121" t="s">
+        <v>2</v>
+      </c>
+      <c r="H121" t="s">
+        <v>3</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" ref="I121:I123" si="10">_xlfn.CONCAT(F121,A121,G121,E121,H121)</f>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ROCKET_ARTILLERY" /&gt;&lt;Set Cost="590"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>282</v>
+      </c>
+      <c r="B122">
+        <v>680</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122">
+        <f>ROUND(B122*D$1/5,0)*5</f>
+        <v>530</v>
+      </c>
+      <c r="E122">
+        <f>ROUND(B122*E$1/5,0)*5</f>
+        <v>590</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G122" t="s">
+        <v>2</v>
+      </c>
+      <c r="H122" t="s">
+        <v>3</v>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MISSILE_CRUISER" /&gt;&lt;Set Cost="590"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>283</v>
+      </c>
+      <c r="B123">
+        <v>680</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123">
+        <f>ROUND(B123*D$1/5,0)*5</f>
+        <v>530</v>
+      </c>
+      <c r="E123">
+        <f>ROUND(B123*E$1/5,0)*5</f>
+        <v>590</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H123" t="s">
+        <v>3</v>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MODERN_ARMOR" /&gt;&lt;Set Cost="590"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131">
+        <v>40</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D140" si="11">ROUND(B131*D$1/5,0)*5</f>
+        <v>30</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E140" si="12">ROUND(B131*E$1/5,0)*5</f>
+        <v>35</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1</v>
+      </c>
+      <c r="G131" t="s">
+        <v>2</v>
+      </c>
+      <c r="H131" t="s">
+        <v>3</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" ref="I131:I140" si="13">_xlfn.CONCAT(F131,A131,G131,E131,H131)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_TRADER" /&gt;&lt;Set Cost="35"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>87</v>
+      </c>
+      <c r="B132">
+        <v>50</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>2</v>
+      </c>
+      <c r="H132" t="s">
+        <v>3</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_BUILDER" /&gt;&lt;Set Cost="45"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133">
+        <v>120</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="11"/>
+        <v>95</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="12"/>
+        <v>105</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>2</v>
+      </c>
+      <c r="H133" t="s">
+        <v>3</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_GURU" /&gt;&lt;Set Cost="105"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>115</v>
+      </c>
+      <c r="B134">
+        <v>75</v>
+      </c>
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>3</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_MISSIONARY" /&gt;&lt;Set Cost="65"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135">
+        <v>75</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>2</v>
+      </c>
+      <c r="H135" t="s">
+        <v>3</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_INQUISITOR" /&gt;&lt;Set Cost="65"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>119</v>
+      </c>
+      <c r="B136">
+        <v>80</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>2</v>
+      </c>
+      <c r="H136" t="s">
+        <v>3</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_SETTLER" /&gt;&lt;Set Cost="70"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>183</v>
+      </c>
+      <c r="B137">
+        <v>200</v>
+      </c>
+      <c r="C137" t="s">
         <v>18</v>
       </c>
-      <c r="D108">
-        <f t="shared" si="6"/>
-        <v>335</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="7"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>259</v>
-      </c>
-      <c r="B109">
-        <v>430</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="D137">
+        <f t="shared" si="11"/>
+        <v>155</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>2</v>
+      </c>
+      <c r="H137" t="s">
+        <v>3</v>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_APOSTLE" /&gt;&lt;Set Cost="175"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>238</v>
+      </c>
+      <c r="B138">
+        <v>300</v>
+      </c>
+      <c r="C138" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="11"/>
+        <v>235</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="12"/>
+        <v>260</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>2</v>
+      </c>
+      <c r="H138" t="s">
+        <v>3</v>
+      </c>
+      <c r="I138" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_ROCK_BAND" /&gt;&lt;Set Cost="260"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>236</v>
+      </c>
+      <c r="B139">
+        <v>300</v>
+      </c>
+      <c r="C139" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="11"/>
+        <v>235</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="12"/>
+        <v>260</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>2</v>
+      </c>
+      <c r="H139" t="s">
+        <v>3</v>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_NATURALIST" /&gt;&lt;Set Cost="260"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>254</v>
+      </c>
+      <c r="B140">
+        <v>400</v>
+      </c>
+      <c r="C140" t="s">
         <v>18</v>
       </c>
-      <c r="D109">
-        <f t="shared" si="6"/>
-        <v>335</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="7"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>260</v>
-      </c>
-      <c r="B110">
-        <v>430</v>
-      </c>
-      <c r="C110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="6"/>
-        <v>335</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="7"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>261</v>
-      </c>
-      <c r="B111">
-        <v>430</v>
-      </c>
-      <c r="C111" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="6"/>
-        <v>335</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="7"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>262</v>
-      </c>
-      <c r="B112">
-        <v>430</v>
-      </c>
-      <c r="C112" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="6"/>
-        <v>335</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="7"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>263</v>
-      </c>
-      <c r="B113">
-        <v>430</v>
-      </c>
-      <c r="C113" t="s">
-        <v>18</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="6"/>
-        <v>335</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="7"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>264</v>
-      </c>
-      <c r="B114">
-        <v>450</v>
-      </c>
-      <c r="C114" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114">
-        <f t="shared" si="6"/>
+      <c r="D140">
+        <f t="shared" si="11"/>
+        <v>310</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="12"/>
         <v>350</v>
       </c>
-      <c r="E114">
-        <f t="shared" si="7"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>265</v>
-      </c>
-      <c r="B115">
-        <v>455</v>
-      </c>
-      <c r="C115" t="s">
-        <v>18</v>
-      </c>
-      <c r="D115">
-        <f t="shared" si="6"/>
-        <v>355</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="7"/>
-        <v>395</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>266</v>
-      </c>
-      <c r="B116">
-        <v>480</v>
-      </c>
-      <c r="C116" t="s">
-        <v>18</v>
-      </c>
-      <c r="D116">
-        <f t="shared" si="6"/>
-        <v>375</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="7"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>267</v>
-      </c>
-      <c r="B117">
-        <v>480</v>
-      </c>
-      <c r="C117" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="6"/>
-        <v>375</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="7"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>268</v>
-      </c>
-      <c r="B118">
-        <v>520</v>
-      </c>
-      <c r="C118" t="s">
-        <v>26</v>
-      </c>
-      <c r="D118">
-        <f t="shared" si="6"/>
-        <v>405</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="7"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>269</v>
-      </c>
-      <c r="B119">
-        <v>520</v>
-      </c>
-      <c r="C119" t="s">
-        <v>26</v>
-      </c>
-      <c r="D119">
-        <f t="shared" si="6"/>
-        <v>405</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="7"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>270</v>
-      </c>
-      <c r="B120">
-        <v>520</v>
-      </c>
-      <c r="C120" t="s">
-        <v>26</v>
-      </c>
-      <c r="D120">
-        <f t="shared" si="6"/>
-        <v>405</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="7"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>271</v>
-      </c>
-      <c r="B121">
-        <v>540</v>
-      </c>
-      <c r="C121" t="s">
-        <v>26</v>
-      </c>
-      <c r="D121">
-        <f t="shared" si="6"/>
-        <v>420</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="7"/>
-        <v>470</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>272</v>
-      </c>
-      <c r="B122">
-        <v>540</v>
-      </c>
-      <c r="C122" t="s">
-        <v>26</v>
-      </c>
-      <c r="D122">
-        <f t="shared" si="6"/>
-        <v>420</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="7"/>
-        <v>470</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>273</v>
-      </c>
-      <c r="B123">
-        <v>540</v>
-      </c>
-      <c r="C123" t="s">
-        <v>26</v>
-      </c>
-      <c r="D123">
-        <f t="shared" si="6"/>
-        <v>420</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="7"/>
-        <v>470</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>274</v>
-      </c>
-      <c r="B124">
-        <v>560</v>
-      </c>
-      <c r="C124" t="s">
-        <v>26</v>
-      </c>
-      <c r="D124">
-        <f t="shared" si="6"/>
-        <v>435</v>
-      </c>
-      <c r="E124">
-        <f t="shared" si="7"/>
-        <v>485</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>275</v>
-      </c>
-      <c r="B125">
-        <v>580</v>
-      </c>
-      <c r="C125" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125">
-        <f t="shared" si="6"/>
-        <v>450</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="7"/>
-        <v>505</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>276</v>
-      </c>
-      <c r="B126">
-        <v>590</v>
-      </c>
-      <c r="C126" t="s">
-        <v>28</v>
-      </c>
-      <c r="D126">
-        <f t="shared" si="6"/>
-        <v>460</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="7"/>
-        <v>515</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>277</v>
-      </c>
-      <c r="B127">
-        <v>600</v>
-      </c>
-      <c r="C127" t="s">
-        <v>28</v>
-      </c>
-      <c r="D127">
-        <f t="shared" si="6"/>
-        <v>470</v>
-      </c>
-      <c r="E127">
-        <f t="shared" si="7"/>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>278</v>
-      </c>
-      <c r="B128">
-        <v>650</v>
-      </c>
-      <c r="C128" t="s">
-        <v>28</v>
-      </c>
-      <c r="D128">
-        <f t="shared" si="6"/>
-        <v>505</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="7"/>
-        <v>565</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>279</v>
-      </c>
-      <c r="B129">
-        <v>650</v>
-      </c>
-      <c r="C129" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129">
-        <f t="shared" si="6"/>
-        <v>505</v>
-      </c>
-      <c r="E129">
-        <f t="shared" si="7"/>
-        <v>565</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>280</v>
-      </c>
-      <c r="B130">
-        <v>680</v>
-      </c>
-      <c r="C130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130">
-        <f t="shared" si="6"/>
-        <v>530</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="7"/>
-        <v>590</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>281</v>
-      </c>
-      <c r="B131">
-        <v>680</v>
-      </c>
-      <c r="C131" t="s">
-        <v>28</v>
-      </c>
-      <c r="D131">
-        <f>ROUND(B131*D$1/5,0)*5</f>
-        <v>530</v>
-      </c>
-      <c r="E131">
-        <f>ROUND(B131*E$1/5,0)*5</f>
-        <v>590</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>282</v>
-      </c>
-      <c r="B132">
-        <v>680</v>
-      </c>
-      <c r="C132" t="s">
-        <v>28</v>
-      </c>
-      <c r="D132">
-        <f>ROUND(B132*D$1/5,0)*5</f>
-        <v>530</v>
-      </c>
-      <c r="E132">
-        <f>ROUND(B132*E$1/5,0)*5</f>
-        <v>590</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>283</v>
-      </c>
-      <c r="B133">
-        <v>680</v>
-      </c>
-      <c r="C133" t="s">
-        <v>28</v>
-      </c>
-      <c r="D133">
-        <f>ROUND(B133*D$1/5,0)*5</f>
-        <v>530</v>
-      </c>
-      <c r="E133">
-        <f>ROUND(B133*E$1/5,0)*5</f>
-        <v>590</v>
+      <c r="F140" t="s">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>2</v>
+      </c>
+      <c r="H140" t="s">
+        <v>3</v>
+      </c>
+      <c r="I140" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_ARCHAEOLOGIST" /&gt;&lt;Set Cost="350"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>79</v>
+      </c>
+      <c r="B142">
+        <v>30</v>
+      </c>
+      <c r="C142" t="s">
+        <v>285</v>
+      </c>
+      <c r="E142">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>119</v>
+      </c>
+      <c r="B143">
+        <v>80</v>
+      </c>
+      <c r="C143" t="s">
+        <v>286</v>
+      </c>
+      <c r="E143">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>87</v>
+      </c>
+      <c r="B144">
+        <v>50</v>
+      </c>
+      <c r="C144" t="s">
+        <v>286</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>115</v>
+      </c>
+      <c r="B145">
+        <v>75</v>
+      </c>
+      <c r="C145" t="s">
+        <v>286</v>
+      </c>
+      <c r="E145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>183</v>
+      </c>
+      <c r="B146">
+        <v>170</v>
+      </c>
+      <c r="C146" t="s">
+        <v>286</v>
+      </c>
+      <c r="E146">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>117</v>
+      </c>
+      <c r="B147">
+        <v>75</v>
+      </c>
+      <c r="C147" t="s">
+        <v>286</v>
+      </c>
+      <c r="E147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148">
+        <v>100</v>
+      </c>
+      <c r="C148" t="s">
+        <v>286</v>
+      </c>
+      <c r="E148">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>205</v>
+      </c>
+      <c r="B149">
+        <v>200</v>
+      </c>
+      <c r="C149" t="s">
+        <v>286</v>
+      </c>
+      <c r="E149">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>236</v>
+      </c>
+      <c r="B150">
+        <v>250</v>
+      </c>
+      <c r="C150" t="s">
+        <v>286</v>
+      </c>
+      <c r="E150">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>238</v>
+      </c>
+      <c r="B151">
+        <v>250</v>
+      </c>
+      <c r="C151" t="s">
+        <v>286</v>
+      </c>
+      <c r="E151">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/文档/生产力造价.xlsx
+++ b/文档/生产力造价.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D75B8-156C-4DEE-807C-1386179E2AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44111C81-A667-47A7-A0CC-6CE24DDEDB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="36" windowWidth="19500" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="奇观" sheetId="1" r:id="rId1"/>
@@ -1231,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C1">
         <f>VLOOKUP(B1,$F$18:$H$29,2,FALSE)</f>
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="O1" t="str">
         <f>_xlfn.CONCAT($K$1,A1,$L$1,C1,$M$1)</f>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STONEHENGE" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STONEHENGE" /&gt;&lt;Set Cost="125"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1279,11 +1279,11 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C33" si="0">VLOOKUP(B2,$F$18:$H$29,2,FALSE)</f>
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="O2" t="str">
         <f t="shared" ref="O2:O33" si="1">_xlfn.CONCAT($K$1,A2,$L$1,C2,$M$1)</f>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HANGING_GARDENS" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HANGING_GARDENS" /&gt;&lt;Set Cost="125"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1295,11 +1295,11 @@
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TEMPLE_ARTEMIS" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TEMPLE_ARTEMIS" /&gt;&lt;Set Cost="125"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1311,11 +1311,11 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_BATH" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_BATH" /&gt;&lt;Set Cost="125"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1327,11 +1327,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PYRAMIDS" /&gt;&lt;Set Cost="160"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PYRAMIDS" /&gt;&lt;Set Cost="150"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ETEMENANKI" /&gt;&lt;Set Cost="160"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ETEMENANKI" /&gt;&lt;Set Cost="150"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1377,19 +1377,19 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <f>F7*2.1</f>
-        <v>136.5</v>
+        <v>126</v>
       </c>
       <c r="H7">
         <f>F7*2.5</f>
-        <v>162.5</v>
+        <v>150</v>
       </c>
       <c r="I7">
         <f>F7*3</f>
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="1"/>
@@ -1709,11 +1709,11 @@
         <v>180</v>
       </c>
       <c r="G18">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H18">
         <f>G18/F18</f>
-        <v>0.75</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="1"/>
@@ -1738,11 +1738,11 @@
         <v>220</v>
       </c>
       <c r="G19">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19:H29" si="5">G19/F19</f>
-        <v>0.72727272727272729</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="1"/>
@@ -2436,7 +2436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>

--- a/文档/生产力造价.xlsx
+++ b/文档/生产力造价.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44111C81-A667-47A7-A0CC-6CE24DDEDB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABEE6D7-8CD8-4674-B48E-B2F77D9F3992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="36" windowWidth="19500" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="奇观" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="298">
   <si>
     <t>BUILDING_STONEHENGE</t>
   </si>
@@ -896,6 +896,42 @@
   </si>
   <si>
     <t>COST_PROGRESSION_PREVIOUS_COPIES</t>
+  </si>
+  <si>
+    <t>BUILDING_HOSPITAL</t>
+  </si>
+  <si>
+    <t>BUILDING_OPERA_HOUSE</t>
+  </si>
+  <si>
+    <t>BUILDING_PUBLIC_SCHOOL</t>
+  </si>
+  <si>
+    <t>BUILDING_SEAPORT</t>
+  </si>
+  <si>
+    <t>BUILDING_MEDICAL_LAB</t>
+  </si>
+  <si>
+    <t>BUILDING_VIVARIUM</t>
+  </si>
+  <si>
+    <t>BUILDING_MANUFACTURING_PLANT</t>
+  </si>
+  <si>
+    <t>BUILDING_VISITOR_CENTER</t>
+  </si>
+  <si>
+    <t>&lt;Update&gt;&lt;Where BuildingType="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIT_MISSIONARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1231,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1290,7 @@
       </c>
       <c r="C1">
         <f>VLOOKUP(B1,$F$18:$H$29,2,FALSE)</f>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
@@ -1267,7 +1303,7 @@
       </c>
       <c r="O1" t="str">
         <f>_xlfn.CONCAT($K$1,A1,$L$1,C1,$M$1)</f>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STONEHENGE" /&gt;&lt;Set Cost="125"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STONEHENGE" /&gt;&lt;Set Cost="150"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1279,11 +1315,11 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C33" si="0">VLOOKUP(B2,$F$18:$H$29,2,FALSE)</f>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="O2" t="str">
         <f t="shared" ref="O2:O33" si="1">_xlfn.CONCAT($K$1,A2,$L$1,C2,$M$1)</f>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HANGING_GARDENS" /&gt;&lt;Set Cost="125"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HANGING_GARDENS" /&gt;&lt;Set Cost="150"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1295,11 +1331,11 @@
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TEMPLE_ARTEMIS" /&gt;&lt;Set Cost="125"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TEMPLE_ARTEMIS" /&gt;&lt;Set Cost="150"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1311,11 +1347,11 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_BATH" /&gt;&lt;Set Cost="125"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_BATH" /&gt;&lt;Set Cost="150"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1327,11 +1363,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PYRAMIDS" /&gt;&lt;Set Cost="150"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PYRAMIDS" /&gt;&lt;Set Cost="175"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1343,7 +1379,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1359,7 +1395,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ETEMENANKI" /&gt;&lt;Set Cost="150"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ETEMENANKI" /&gt;&lt;Set Cost="175"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1371,29 +1407,30 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <f>建筑单位!P6</f>
+        <v>70</v>
       </c>
       <c r="G7">
         <f>F7*2.1</f>
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="H7">
         <f>F7*2.5</f>
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="I7">
         <f>F7*3</f>
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ORACLE" /&gt;&lt;Set Cost="210"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ORACLE" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1405,29 +1442,30 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <f>建筑单位!P16</f>
+        <v>120</v>
       </c>
       <c r="G8">
         <f t="shared" ref="G8:G14" si="2">F8*2.1</f>
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H14" si="3">F8*2.5</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="I8">
         <f t="shared" ref="I8:I14" si="4">F8*3</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_LIGHTHOUSE" /&gt;&lt;Set Cost="210"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_LIGHTHOUSE" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1439,29 +1477,30 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9">
-        <v>160</v>
+        <f>建筑单位!P31</f>
+        <v>195</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>409.5</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>487.5</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>585</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_COLOSSUS" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_COLOSSUS" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1473,29 +1512,30 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
       </c>
       <c r="F10">
-        <v>240</v>
+        <f>建筑单位!P54</f>
+        <v>290</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>504</v>
+        <v>609</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>725</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>720</v>
+        <v>870</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PETRA" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PETRA" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1507,29 +1547,30 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
       </c>
       <c r="F11">
-        <v>330</v>
+        <f>建筑单位!P64</f>
+        <v>400</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>693</v>
+        <v>840</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>990</v>
+        <v>1200</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_COLOSSEUM" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_COLOSSEUM" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1541,29 +1582,30 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
       </c>
       <c r="F12">
-        <v>430</v>
+        <f>建筑单位!P78</f>
+        <v>520</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>903</v>
+        <v>1092</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>1075</v>
+        <v>1300</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>1290</v>
+        <v>1560</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_LIBRARY" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_LIBRARY" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1575,29 +1617,30 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
       <c r="F13">
-        <v>540</v>
+        <f>建筑单位!P85</f>
+        <v>650</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>1134</v>
+        <v>1365</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>1350</v>
+        <v>1625</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>1620</v>
+        <v>1950</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MAHABODHI_TEMPLE" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MAHABODHI_TEMPLE" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1609,29 +1652,30 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
       <c r="F14">
-        <v>650</v>
+        <f>建筑单位!P88</f>
+        <v>785</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>1365</v>
+        <v>1648.5</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>1625</v>
+        <v>1962.5</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>1950</v>
+        <v>2355</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TERRACOTTA_ARMY" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TERRACOTTA_ARMY" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1643,11 +1687,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_JEBEL_BARKAL" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_JEBEL_BARKAL" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1659,11 +1703,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_APADANA" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_APADANA" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1675,7 +1719,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F17" t="s">
         <v>32</v>
@@ -1688,7 +1732,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HALICARNASSUS_MAUSOLEUM" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HALICARNASSUS_MAUSOLEUM" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1700,7 +1744,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -1709,15 +1753,15 @@
         <v>180</v>
       </c>
       <c r="G18">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H18">
         <f>G18/F18</f>
-        <v>0.69444444444444442</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MACHU_PICCHU" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MACHU_PICCHU" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1729,7 +1773,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -1738,15 +1782,15 @@
         <v>220</v>
       </c>
       <c r="G19">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19:H29" si="5">G19/F19</f>
-        <v>0.68181818181818177</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STATUE_OF_ZEUS" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STATUE_OF_ZEUS" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1758,7 +1802,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -1767,15 +1811,15 @@
         <v>290</v>
       </c>
       <c r="G20">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
-        <v>0.72413793103448276</v>
+        <v>0.86206896551724133</v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HAGIA_SOPHIA" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HAGIA_SOPHIA" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1787,7 +1831,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -1796,15 +1840,15 @@
         <v>400</v>
       </c>
       <c r="G21">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ALHAMBRA" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ALHAMBRA" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1816,7 +1860,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -1825,15 +1869,15 @@
         <v>710</v>
       </c>
       <c r="G22">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="H22">
         <f t="shared" si="5"/>
-        <v>0.56338028169014087</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CHICHEN_ITZA" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CHICHEN_ITZA" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1845,7 +1889,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -1854,15 +1898,15 @@
         <v>920</v>
       </c>
       <c r="G23">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H23">
         <f t="shared" si="5"/>
-        <v>0.54347826086956519</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MONT_ST_MICHEL" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MONT_ST_MICHEL" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1874,7 +1918,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -1883,15 +1927,15 @@
         <v>1060</v>
       </c>
       <c r="G24">
-        <v>600</v>
+        <v>725</v>
       </c>
       <c r="H24">
         <f t="shared" si="5"/>
-        <v>0.56603773584905659</v>
+        <v>0.68396226415094341</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HUEY_TEOCALLI" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HUEY_TEOCALLI" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1903,7 +1947,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="E25" t="s">
         <v>22</v>
@@ -1912,15 +1956,15 @@
         <v>1240</v>
       </c>
       <c r="G25">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="H25">
         <f t="shared" si="5"/>
-        <v>0.56451612903225812</v>
+        <v>0.68548387096774188</v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ANGKOR_WAT" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ANGKOR_WAT" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1932,7 +1976,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="E26" t="s">
         <v>22</v>
@@ -1941,15 +1985,15 @@
         <v>1450</v>
       </c>
       <c r="G26">
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>0.56896551724137934</v>
+        <v>0.68965517241379315</v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_KILWA_KISIWANI" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_KILWA_KISIWANI" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1961,7 +2005,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
@@ -1970,15 +2014,15 @@
         <v>1620</v>
       </c>
       <c r="G27">
-        <v>1075</v>
+        <v>1280</v>
       </c>
       <c r="H27">
         <f t="shared" si="5"/>
-        <v>0.6635802469135802</v>
+        <v>0.79012345679012341</v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_KOTOKU_IN" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_KOTOKU_IN" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1990,7 +2034,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
@@ -1999,15 +2043,15 @@
         <v>1740</v>
       </c>
       <c r="G28">
-        <v>1150</v>
+        <v>1365</v>
       </c>
       <c r="H28">
         <f t="shared" si="5"/>
-        <v>0.66091954022988508</v>
+        <v>0.78448275862068961</v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MEENAKSHI_TEMPLE" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MEENAKSHI_TEMPLE" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2019,7 +2063,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
@@ -2028,15 +2072,15 @@
         <v>1850</v>
       </c>
       <c r="G29">
-        <v>1350</v>
+        <v>1625</v>
       </c>
       <c r="H29">
         <f t="shared" si="5"/>
-        <v>0.72972972972972971</v>
+        <v>0.8783783783783784</v>
       </c>
       <c r="O29" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_UNIVERSITY_SANKORE" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_UNIVERSITY_SANKORE" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2048,11 +2092,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_VENETIAN_ARSENAL" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_VENETIAN_ARSENAL" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2064,11 +2108,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_ZIMBABWE" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_ZIMBABWE" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2080,11 +2124,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O32" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FORBIDDEN_CITY" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FORBIDDEN_CITY" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2096,11 +2140,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CASA_DE_CONTRATACION" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CASA_DE_CONTRATACION" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2112,11 +2156,11 @@
       </c>
       <c r="C34">
         <f t="shared" ref="C34:C53" si="6">VLOOKUP(B34,$F$18:$H$29,2,FALSE)</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O34" t="str">
         <f t="shared" ref="O34:O53" si="7">_xlfn.CONCAT($K$1,A34,$L$1,C34,$M$1)</f>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ST_BASILS_CATHEDRAL" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ST_BASILS_CATHEDRAL" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2128,11 +2172,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O35" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TAJ_MAHAL" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TAJ_MAHAL" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2144,11 +2188,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O36" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ORSZAGHAZ" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ORSZAGHAZ" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2160,11 +2204,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O37" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PANAMA_CANAL" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PANAMA_CANAL" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2176,11 +2220,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O38" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TORRE_DE_BELEM" /&gt;&lt;Set Cost="500"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TORRE_DE_BELEM" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2192,11 +2236,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="6"/>
-        <v>600</v>
+        <v>725</v>
       </c>
       <c r="O39" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_POTALA_PALACE" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_POTALA_PALACE" /&gt;&lt;Set Cost="725"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2208,11 +2252,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="6"/>
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="O40" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_RUHR_VALLEY" /&gt;&lt;Set Cost="700"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_RUHR_VALLEY" /&gt;&lt;Set Cost="850"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2224,11 +2268,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="6"/>
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="O41" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BOLSHOI_THEATRE" /&gt;&lt;Set Cost="700"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BOLSHOI_THEATRE" /&gt;&lt;Set Cost="850"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2240,11 +2284,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="6"/>
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="O42" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_OXFORD_UNIVERSITY" /&gt;&lt;Set Cost="700"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_OXFORD_UNIVERSITY" /&gt;&lt;Set Cost="850"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2256,11 +2300,11 @@
       </c>
       <c r="C43">
         <f t="shared" si="6"/>
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STATUE_LIBERTY" /&gt;&lt;Set Cost="700"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STATUE_LIBERTY" /&gt;&lt;Set Cost="850"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2272,11 +2316,11 @@
       </c>
       <c r="C44">
         <f t="shared" si="6"/>
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="O44" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BIG_BEN" /&gt;&lt;Set Cost="825"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BIG_BEN" /&gt;&lt;Set Cost="1000"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2288,11 +2332,11 @@
       </c>
       <c r="C45">
         <f t="shared" si="6"/>
-        <v>825</v>
+        <v>1000</v>
       </c>
       <c r="O45" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HERMITAGE" /&gt;&lt;Set Cost="825"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HERMITAGE" /&gt;&lt;Set Cost="1000"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2304,11 +2348,11 @@
       </c>
       <c r="C46">
         <f t="shared" si="6"/>
-        <v>1075</v>
+        <v>1280</v>
       </c>
       <c r="O46" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_EIFFEL_TOWER" /&gt;&lt;Set Cost="1075"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_EIFFEL_TOWER" /&gt;&lt;Set Cost="1280"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -2320,11 +2364,11 @@
       </c>
       <c r="C47">
         <f t="shared" si="6"/>
-        <v>1075</v>
+        <v>1280</v>
       </c>
       <c r="O47" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BROADWAY" /&gt;&lt;Set Cost="1075"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BROADWAY" /&gt;&lt;Set Cost="1280"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2336,11 +2380,11 @@
       </c>
       <c r="C48">
         <f t="shared" si="6"/>
-        <v>1075</v>
+        <v>1280</v>
       </c>
       <c r="O48" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CRISTO_REDENTOR" /&gt;&lt;Set Cost="1075"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CRISTO_REDENTOR" /&gt;&lt;Set Cost="1280"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2352,11 +2396,11 @@
       </c>
       <c r="C49">
         <f t="shared" si="6"/>
-        <v>1075</v>
+        <v>1280</v>
       </c>
       <c r="O49" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_AMUNDSEN_SCOTT_RESEARCH_STATION" /&gt;&lt;Set Cost="1075"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_AMUNDSEN_SCOTT_RESEARCH_STATION" /&gt;&lt;Set Cost="1280"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -2368,11 +2412,11 @@
       </c>
       <c r="C50">
         <f t="shared" si="6"/>
-        <v>1075</v>
+        <v>1280</v>
       </c>
       <c r="O50" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOLDEN_GATE_BRIDGE" /&gt;&lt;Set Cost="1075"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOLDEN_GATE_BRIDGE" /&gt;&lt;Set Cost="1280"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -2384,11 +2428,11 @@
       </c>
       <c r="C51">
         <f t="shared" si="6"/>
-        <v>1150</v>
+        <v>1365</v>
       </c>
       <c r="O51" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ESTADIO_DO_MARACANA" /&gt;&lt;Set Cost="1150"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ESTADIO_DO_MARACANA" /&gt;&lt;Set Cost="1365"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -2400,11 +2444,11 @@
       </c>
       <c r="C52">
         <f t="shared" si="6"/>
-        <v>1150</v>
+        <v>1365</v>
       </c>
       <c r="O52" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BIOSPHERE" /&gt;&lt;Set Cost="1150"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BIOSPHERE" /&gt;&lt;Set Cost="1365"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -2416,11 +2460,11 @@
       </c>
       <c r="C53">
         <f t="shared" si="6"/>
-        <v>1350</v>
+        <v>1625</v>
       </c>
       <c r="O53" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SYDNEY_OPERA_HOUSE" /&gt;&lt;Set Cost="1350"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SYDNEY_OPERA_HOUSE" /&gt;&lt;Set Cost="1625"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -2434,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2446,10 +2490,11 @@
     <col min="6" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="75.77734375" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625"/>
+    <col min="14" max="14" width="20.5546875" customWidth="1"/>
+    <col min="20" max="20" width="75.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D1">
         <v>0.78</v>
       </c>
@@ -2465,8 +2510,23 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="P1">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2506,8 +2566,31 @@
       <c r="M2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2">
+        <v>40</v>
+      </c>
+      <c r="P2">
+        <f>ROUND(O2*P$1/5,0)*5</f>
+        <v>50</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="str">
+        <f>_xlfn.CONCAT(Q2,N2,R2,P2,S2)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MONUMENT" /&gt;&lt;Set Cost="50"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -2547,8 +2630,31 @@
       <c r="M3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <f>ROUND(O3*P$1/5,0)*5</f>
+        <v>60</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" t="str">
+        <f>_xlfn.CONCAT(Q3,N3,R3,P3,S3)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GRANARY" /&gt;&lt;Set Cost="60"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -2588,8 +2694,31 @@
       <c r="M4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4">
+        <v>55</v>
+      </c>
+      <c r="P4">
+        <f>ROUND(O4*P$1/5,0)*5</f>
+        <v>65</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="str">
+        <f>_xlfn.CONCAT(Q4,N4,R4,P4,S4)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SHRINE" /&gt;&lt;Set Cost="65"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -2629,8 +2758,31 @@
       <c r="M5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5">
+        <v>60</v>
+      </c>
+      <c r="P5">
+        <f>ROUND(O5*P$1/5,0)*5</f>
+        <v>70</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" t="str">
+        <f>_xlfn.CONCAT(Q5,N5,R5,P5,S5)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_WALLS" /&gt;&lt;Set Cost="70"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -2670,8 +2822,31 @@
       <c r="M6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>60</v>
+      </c>
+      <c r="P6">
+        <f>ROUND(O6*P$1/5,0)*5</f>
+        <v>70</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" t="str">
+        <f>_xlfn.CONCAT(Q6,N6,R6,P6,S6)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_WATER_MILL" /&gt;&lt;Set Cost="70"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2711,8 +2886,31 @@
       <c r="M7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7">
+        <v>60</v>
+      </c>
+      <c r="P7">
+        <f>ROUND(O7*P$1/5,0)*5</f>
+        <v>70</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" t="str">
+        <f>_xlfn.CONCAT(Q7,N7,R7,P7,S7)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FLOOD_BARRIER" /&gt;&lt;Set Cost="70"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2752,8 +2950,31 @@
       <c r="M8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8">
+        <v>60</v>
+      </c>
+      <c r="P8">
+        <f>ROUND(O8*P$1/5,0)*5</f>
+        <v>70</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" t="str">
+        <f>_xlfn.CONCAT(Q8,N8,R8,P8,S8)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PALGUM" /&gt;&lt;Set Cost="70"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2793,8 +3014,31 @@
       <c r="M9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9">
+        <v>70</v>
+      </c>
+      <c r="P9">
+        <f>ROUND(O9*P$1/5,0)*5</f>
+        <v>85</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" t="str">
+        <f>_xlfn.CONCAT(Q9,N9,R9,P9,S9)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BARRACKS" /&gt;&lt;Set Cost="85"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -2834,8 +3078,31 @@
       <c r="M10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10">
+        <v>70</v>
+      </c>
+      <c r="P10">
+        <f>ROUND(O10*P$1/5,0)*5</f>
+        <v>85</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" t="str">
+        <f>_xlfn.CONCAT(Q10,N10,R10,P10,S10)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_LIBRARY" /&gt;&lt;Set Cost="85"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -2875,8 +3142,31 @@
       <c r="M11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11">
+        <v>70</v>
+      </c>
+      <c r="P11">
+        <f>ROUND(O11*P$1/5,0)*5</f>
+        <v>85</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" t="str">
+        <f>_xlfn.CONCAT(Q11,N11,R11,P11,S11)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BASILIKOI_PAIDES" /&gt;&lt;Set Cost="85"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -2916,8 +3206,31 @@
       <c r="M12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12">
+        <v>90</v>
+      </c>
+      <c r="P12">
+        <f>ROUND(O12*P$1/5,0)*5</f>
+        <v>110</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" t="str">
+        <f>_xlfn.CONCAT(Q12,N12,R12,P12,S12)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GROVE" /&gt;&lt;Set Cost="110"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -2957,8 +3270,31 @@
       <c r="M13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <f>ROUND(O13*P$1/5,0)*5</f>
+        <v>120</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" t="str">
+        <f>_xlfn.CONCAT(Q13,N13,R13,P13,S13)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_LIGHTHOUSE" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -2998,8 +3334,31 @@
       <c r="M14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <f>ROUND(O14*P$1/5,0)*5</f>
+        <v>120</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" t="str">
+        <f>_xlfn.CONCAT(Q14,N14,R14,P14,S14)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MARKET" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -3039,8 +3398,31 @@
       <c r="M15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>96</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <f>ROUND(O15*P$1/5,0)*5</f>
+        <v>120</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" t="str">
+        <f>_xlfn.CONCAT(Q15,N15,R15,P15,S15)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STABLE" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -3080,8 +3462,31 @@
       <c r="M16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <f>ROUND(O16*P$1/5,0)*5</f>
+        <v>120</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" t="str">
+        <f>_xlfn.CONCAT(Q16,N16,R16,P16,S16)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TEMPLE" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -3121,8 +3526,31 @@
       <c r="M17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>100</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <f>ROUND(O17*P$1/5,0)*5</f>
+        <v>120</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R17" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" t="str">
+        <f>_xlfn.CONCAT(Q17,N17,R17,P17,S17)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STAVE_CHURCH" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -3162,8 +3590,31 @@
       <c r="M18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="P18">
+        <f>ROUND(O18*P$1/5,0)*5</f>
+        <v>120</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" t="str">
+        <f>_xlfn.CONCAT(Q18,N18,R18,P18,S18)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SEWER" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -3203,8 +3654,31 @@
       <c r="M19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <f>ROUND(O19*P$1/5,0)*5</f>
+        <v>120</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R19" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" t="str">
+        <f>_xlfn.CONCAT(Q19,N19,R19,P19,S19)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PRASAT" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3244,8 +3718,31 @@
       <c r="M20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>104</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="P20">
+        <f>ROUND(O20*P$1/5,0)*5</f>
+        <v>120</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R20" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" t="str">
+        <f>_xlfn.CONCAT(Q20,N20,R20,P20,S20)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SUKIENNICE" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -3285,8 +3782,31 @@
       <c r="M21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O21">
+        <v>100</v>
+      </c>
+      <c r="P21">
+        <f>ROUND(O21*P$1/5,0)*5</f>
+        <v>120</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R21" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" t="str">
+        <f>_xlfn.CONCAT(Q21,N21,R21,P21,S21)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ORDU" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -3326,8 +3846,31 @@
       <c r="M22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22">
+        <v>105</v>
+      </c>
+      <c r="P22">
+        <f>ROUND(O22*P$1/5,0)*5</f>
+        <v>125</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R22" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" t="str">
+        <f>_xlfn.CONCAT(Q22,N22,R22,P22,S22)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TLACHTLI" /&gt;&lt;Set Cost="125"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -3367,8 +3910,31 @@
       <c r="M23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>110</v>
+      </c>
+      <c r="O23">
+        <v>110</v>
+      </c>
+      <c r="P23">
+        <f>ROUND(O23*P$1/5,0)*5</f>
+        <v>135</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R23" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" t="str">
+        <f>_xlfn.CONCAT(Q23,N23,R23,P23,S23)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ARENA" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>125</v>
       </c>
@@ -3408,8 +3974,31 @@
       <c r="M24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>112</v>
+      </c>
+      <c r="O24">
+        <v>110</v>
+      </c>
+      <c r="P24">
+        <f>ROUND(O24*P$1/5,0)*5</f>
+        <v>135</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R24" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" t="str">
+        <f>_xlfn.CONCAT(Q24,N24,R24,P24,S24)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_AMPHITHEATER" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -3449,8 +4038,31 @@
       <c r="M25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>114</v>
+      </c>
+      <c r="O25">
+        <v>110</v>
+      </c>
+      <c r="P25">
+        <f>ROUND(O25*P$1/5,0)*5</f>
+        <v>135</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" t="str">
+        <f>_xlfn.CONCAT(Q25,N25,R25,P25,S25)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_TALL" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -3490,8 +4102,31 @@
       <c r="M26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>116</v>
+      </c>
+      <c r="O26">
+        <v>110</v>
+      </c>
+      <c r="P26">
+        <f>ROUND(O26*P$1/5,0)*5</f>
+        <v>135</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R26" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" t="str">
+        <f>_xlfn.CONCAT(Q26,N26,R26,P26,S26)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_WIDE" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -3531,8 +4166,31 @@
       <c r="M27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27">
+        <v>110</v>
+      </c>
+      <c r="P27">
+        <f>ROUND(O27*P$1/5,0)*5</f>
+        <v>135</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R27" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" t="str">
+        <f>_xlfn.CONCAT(Q27,N27,R27,P27,S27)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_CONQUEST" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -3572,8 +4230,31 @@
       <c r="M28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>120</v>
+      </c>
+      <c r="O28">
+        <v>110</v>
+      </c>
+      <c r="P28">
+        <f>ROUND(O28*P$1/5,0)*5</f>
+        <v>135</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R28" t="s">
+        <v>2</v>
+      </c>
+      <c r="S28" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" t="str">
+        <f>_xlfn.CONCAT(Q28,N28,R28,P28,S28)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MARAE" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -3613,8 +4294,31 @@
       <c r="M29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>126</v>
+      </c>
+      <c r="O29">
+        <v>110</v>
+      </c>
+      <c r="P29">
+        <f>ROUND(O29*P$1/5,0)*5</f>
+        <v>135</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R29" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" t="str">
+        <f>_xlfn.CONCAT(Q29,N29,R29,P29,S29)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CONSULATE" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -3654,8 +4358,31 @@
       <c r="M30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>146</v>
+      </c>
+      <c r="O30">
+        <v>160</v>
+      </c>
+      <c r="P30">
+        <f>ROUND(O30*P$1/5,0)*5</f>
+        <v>195</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R30" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" t="str">
+        <f>_xlfn.CONCAT(Q30,N30,R30,P30,S30)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_WORKSHOP" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -3695,8 +4422,31 @@
       <c r="M31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>148</v>
+      </c>
+      <c r="O31">
+        <v>160</v>
+      </c>
+      <c r="P31">
+        <f>ROUND(O31*P$1/5,0)*5</f>
+        <v>195</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R31" t="s">
+        <v>2</v>
+      </c>
+      <c r="S31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" t="str">
+        <f>_xlfn.CONCAT(Q31,N31,R31,P31,S31)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ARMORY" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -3736,8 +4486,31 @@
       <c r="M32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>128</v>
+      </c>
+      <c r="O32">
+        <v>160</v>
+      </c>
+      <c r="P32">
+        <f>ROUND(O32*P$1/5,0)*5</f>
+        <v>195</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R32" t="s">
+        <v>2</v>
+      </c>
+      <c r="S32" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" t="str">
+        <f>_xlfn.CONCAT(Q32,N32,R32,P32,S32)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CATHEDRAL" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -3777,8 +4550,31 @@
       <c r="M33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>130</v>
+      </c>
+      <c r="O33">
+        <v>160</v>
+      </c>
+      <c r="P33">
+        <f>ROUND(O33*P$1/5,0)*5</f>
+        <v>195</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R33" t="s">
+        <v>2</v>
+      </c>
+      <c r="S33" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" t="str">
+        <f>_xlfn.CONCAT(Q33,N33,R33,P33,S33)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GURDWARA" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -3818,8 +4614,31 @@
       <c r="M34" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>132</v>
+      </c>
+      <c r="O34">
+        <v>160</v>
+      </c>
+      <c r="P34">
+        <f>ROUND(O34*P$1/5,0)*5</f>
+        <v>195</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R34" t="s">
+        <v>2</v>
+      </c>
+      <c r="S34" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" t="str">
+        <f>_xlfn.CONCAT(Q34,N34,R34,P34,S34)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MEETING_HOUSE" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -3859,8 +4678,31 @@
       <c r="M35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>134</v>
+      </c>
+      <c r="O35">
+        <v>160</v>
+      </c>
+      <c r="P35">
+        <f>ROUND(O35*P$1/5,0)*5</f>
+        <v>195</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R35" t="s">
+        <v>2</v>
+      </c>
+      <c r="S35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" t="str">
+        <f>_xlfn.CONCAT(Q35,N35,R35,P35,S35)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MOSQUE" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -3900,8 +4742,31 @@
       <c r="M36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>136</v>
+      </c>
+      <c r="O36">
+        <v>160</v>
+      </c>
+      <c r="P36">
+        <f>ROUND(O36*P$1/5,0)*5</f>
+        <v>195</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R36" t="s">
+        <v>2</v>
+      </c>
+      <c r="S36" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" t="str">
+        <f>_xlfn.CONCAT(Q36,N36,R36,P36,S36)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PAGODA" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -3941,8 +4806,31 @@
       <c r="M37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>138</v>
+      </c>
+      <c r="O37">
+        <v>160</v>
+      </c>
+      <c r="P37">
+        <f>ROUND(O37*P$1/5,0)*5</f>
+        <v>195</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R37" t="s">
+        <v>2</v>
+      </c>
+      <c r="S37" t="s">
+        <v>3</v>
+      </c>
+      <c r="T37" t="str">
+        <f>_xlfn.CONCAT(Q37,N37,R37,P37,S37)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SYNAGOGUE" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>155</v>
       </c>
@@ -3982,8 +4870,31 @@
       <c r="M38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>140</v>
+      </c>
+      <c r="O38">
+        <v>160</v>
+      </c>
+      <c r="P38">
+        <f>ROUND(O38*P$1/5,0)*5</f>
+        <v>195</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S38" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" t="str">
+        <f>_xlfn.CONCAT(Q38,N38,R38,P38,S38)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_WAT" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -4023,8 +4934,31 @@
       <c r="M39" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>142</v>
+      </c>
+      <c r="O39">
+        <v>160</v>
+      </c>
+      <c r="P39">
+        <f>ROUND(O39*P$1/5,0)*5</f>
+        <v>195</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R39" t="s">
+        <v>2</v>
+      </c>
+      <c r="S39" t="s">
+        <v>3</v>
+      </c>
+      <c r="T39" t="str">
+        <f>_xlfn.CONCAT(Q39,N39,R39,P39,S39)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STUPA" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -4064,8 +4998,31 @@
       <c r="M40" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>144</v>
+      </c>
+      <c r="O40">
+        <v>160</v>
+      </c>
+      <c r="P40">
+        <f>ROUND(O40*P$1/5,0)*5</f>
+        <v>195</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R40" t="s">
+        <v>2</v>
+      </c>
+      <c r="S40" t="s">
+        <v>3</v>
+      </c>
+      <c r="T40" t="str">
+        <f>_xlfn.CONCAT(Q40,N40,R40,P40,S40)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_DAR_E_MEHR" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -4105,8 +5062,31 @@
       <c r="M41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>154</v>
+      </c>
+      <c r="O41">
+        <v>180</v>
+      </c>
+      <c r="P41">
+        <f>ROUND(O41*P$1/5,0)*5</f>
+        <v>215</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R41" t="s">
+        <v>2</v>
+      </c>
+      <c r="S41" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" t="str">
+        <f>_xlfn.CONCAT(Q41,N41,R41,P41,S41)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CASTLE" /&gt;&lt;Set Cost="215"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -4146,8 +5126,31 @@
       <c r="M42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>152</v>
+      </c>
+      <c r="O42">
+        <v>180</v>
+      </c>
+      <c r="P42">
+        <f>ROUND(O42*P$1/5,0)*5</f>
+        <v>215</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R42" t="s">
+        <v>2</v>
+      </c>
+      <c r="S42" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" t="str">
+        <f>_xlfn.CONCAT(Q42,N42,R42,P42,S42)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_QUEENS_BIBLIOTHEQUE" /&gt;&lt;Set Cost="215"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>165</v>
       </c>
@@ -4187,8 +5190,31 @@
       <c r="M43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>156</v>
+      </c>
+      <c r="O43">
+        <v>190</v>
+      </c>
+      <c r="P43">
+        <f>ROUND(O43*P$1/5,0)*5</f>
+        <v>230</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R43" t="s">
+        <v>2</v>
+      </c>
+      <c r="S43" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" t="str">
+        <f>_xlfn.CONCAT(Q43,N43,R43,P43,S43)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GRAND_BAZAAR" /&gt;&lt;Set Cost="230"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -4228,8 +5254,31 @@
       <c r="M44" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>158</v>
+      </c>
+      <c r="O44">
+        <v>200</v>
+      </c>
+      <c r="P44">
+        <f>ROUND(O44*P$1/5,0)*5</f>
+        <v>240</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R44" t="s">
+        <v>2</v>
+      </c>
+      <c r="S44" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" t="str">
+        <f>_xlfn.CONCAT(Q44,N44,R44,P44,S44)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_UNIVERSITY" /&gt;&lt;Set Cost="240"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -4269,8 +5318,31 @@
       <c r="M45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>160</v>
+      </c>
+      <c r="O45">
+        <v>200</v>
+      </c>
+      <c r="P45">
+        <f>ROUND(O45*P$1/5,0)*5</f>
+        <v>240</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R45" t="s">
+        <v>2</v>
+      </c>
+      <c r="S45" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" t="str">
+        <f>_xlfn.CONCAT(Q45,N45,R45,P45,S45)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MADRASA" /&gt;&lt;Set Cost="240"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>171</v>
       </c>
@@ -4310,8 +5382,31 @@
       <c r="M46" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>164</v>
+      </c>
+      <c r="O46">
+        <v>200</v>
+      </c>
+      <c r="P46">
+        <f>ROUND(O46*P$1/5,0)*5</f>
+        <v>240</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R46" t="s">
+        <v>2</v>
+      </c>
+      <c r="S46" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" t="str">
+        <f>_xlfn.CONCAT(Q46,N46,R46,P46,S46)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TSIKHE" /&gt;&lt;Set Cost="240"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>173</v>
       </c>
@@ -4351,8 +5446,31 @@
       <c r="M47" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>162</v>
+      </c>
+      <c r="O47">
+        <v>200</v>
+      </c>
+      <c r="P47">
+        <f>ROUND(O47*P$1/5,0)*5</f>
+        <v>240</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R47" t="s">
+        <v>2</v>
+      </c>
+      <c r="S47" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" t="str">
+        <f>_xlfn.CONCAT(Q47,N47,R47,P47,S47)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_NAVIGATION_SCHOOL" /&gt;&lt;Set Cost="240"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -4392,8 +5510,31 @@
       <c r="M48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>196</v>
+      </c>
+      <c r="O48">
+        <v>230</v>
+      </c>
+      <c r="P48">
+        <f>ROUND(O48*P$1/5,0)*5</f>
+        <v>275</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R48" t="s">
+        <v>2</v>
+      </c>
+      <c r="S48" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" t="str">
+        <f>_xlfn.CONCAT(Q48,N48,R48,P48,S48)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ZOO" /&gt;&lt;Set Cost="275"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -4433,8 +5574,31 @@
       <c r="M49" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>202</v>
+      </c>
+      <c r="O49">
+        <v>230</v>
+      </c>
+      <c r="P49">
+        <f>ROUND(O49*P$1/5,0)*5</f>
+        <v>275</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R49" t="s">
+        <v>2</v>
+      </c>
+      <c r="S49" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" t="str">
+        <f>_xlfn.CONCAT(Q49,N49,R49,P49,S49)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_THERMAL_BATH" /&gt;&lt;Set Cost="275"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>179</v>
       </c>
@@ -4474,8 +5638,31 @@
       <c r="M50" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>166</v>
+      </c>
+      <c r="O50">
+        <v>240</v>
+      </c>
+      <c r="P50">
+        <f>ROUND(O50*P$1/5,0)*5</f>
+        <v>290</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R50" t="s">
+        <v>2</v>
+      </c>
+      <c r="S50" t="s">
+        <v>3</v>
+      </c>
+      <c r="T50" t="str">
+        <f>_xlfn.CONCAT(Q50,N50,R50,P50,S50)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SHIPYARD" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -4515,8 +5702,31 @@
       <c r="M51" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>168</v>
+      </c>
+      <c r="O51">
+        <v>240</v>
+      </c>
+      <c r="P51">
+        <f>ROUND(O51*P$1/5,0)*5</f>
+        <v>290</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R51" t="s">
+        <v>2</v>
+      </c>
+      <c r="S51" t="s">
+        <v>3</v>
+      </c>
+      <c r="T51" t="str">
+        <f>_xlfn.CONCAT(Q51,N51,R51,P51,S51)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BANK" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -4556,8 +5766,31 @@
       <c r="M52" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>170</v>
+      </c>
+      <c r="O52">
+        <v>240</v>
+      </c>
+      <c r="P52">
+        <f>ROUND(O52*P$1/5,0)*5</f>
+        <v>290</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R52" t="s">
+        <v>2</v>
+      </c>
+      <c r="S52" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" t="str">
+        <f>_xlfn.CONCAT(Q52,N52,R52,P52,S52)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MUSEUM_ART" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>187</v>
       </c>
@@ -4597,8 +5830,31 @@
       <c r="M53" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>172</v>
+      </c>
+      <c r="O53">
+        <v>240</v>
+      </c>
+      <c r="P53">
+        <f>ROUND(O53*P$1/5,0)*5</f>
+        <v>290</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R53" t="s">
+        <v>2</v>
+      </c>
+      <c r="S53" t="s">
+        <v>3</v>
+      </c>
+      <c r="T53" t="str">
+        <f>_xlfn.CONCAT(Q53,N53,R53,P53,S53)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MUSEUM_ARTIFACT" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -4638,8 +5894,31 @@
       <c r="M54" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>174</v>
+      </c>
+      <c r="O54">
+        <v>240</v>
+      </c>
+      <c r="P54">
+        <f>ROUND(O54*P$1/5,0)*5</f>
+        <v>290</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R54" t="s">
+        <v>2</v>
+      </c>
+      <c r="S54" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" t="str">
+        <f>_xlfn.CONCAT(Q54,N54,R54,P54,S54)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FERRIS_WHEEL" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -4679,8 +5958,31 @@
       <c r="M55" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>176</v>
+      </c>
+      <c r="O55">
+        <v>240</v>
+      </c>
+      <c r="P55">
+        <f>ROUND(O55*P$1/5,0)*5</f>
+        <v>290</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R55" t="s">
+        <v>2</v>
+      </c>
+      <c r="S55" t="s">
+        <v>3</v>
+      </c>
+      <c r="T55" t="str">
+        <f>_xlfn.CONCAT(Q55,N55,R55,P55,S55)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_CITYSTATES" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>193</v>
       </c>
@@ -4720,8 +6022,31 @@
       <c r="M56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>178</v>
+      </c>
+      <c r="O56">
+        <v>240</v>
+      </c>
+      <c r="P56">
+        <f>ROUND(O56*P$1/5,0)*5</f>
+        <v>290</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R56" t="s">
+        <v>2</v>
+      </c>
+      <c r="S56" t="s">
+        <v>3</v>
+      </c>
+      <c r="T56" t="str">
+        <f>_xlfn.CONCAT(Q56,N56,R56,P56,S56)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_SPIES" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>195</v>
       </c>
@@ -4761,8 +6086,31 @@
       <c r="M57" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>180</v>
+      </c>
+      <c r="O57">
+        <v>240</v>
+      </c>
+      <c r="P57">
+        <f>ROUND(O57*P$1/5,0)*5</f>
+        <v>290</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R57" t="s">
+        <v>2</v>
+      </c>
+      <c r="S57" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" t="str">
+        <f>_xlfn.CONCAT(Q57,N57,R57,P57,S57)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_FAITH" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>197</v>
       </c>
@@ -4802,8 +6150,31 @@
       <c r="M58" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>182</v>
+      </c>
+      <c r="O58">
+        <v>240</v>
+      </c>
+      <c r="P58">
+        <f>ROUND(O58*P$1/5,0)*5</f>
+        <v>290</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R58" t="s">
+        <v>2</v>
+      </c>
+      <c r="S58" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" t="str">
+        <f>_xlfn.CONCAT(Q58,N58,R58,P58,S58)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CHANCERY" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>199</v>
       </c>
@@ -4843,8 +6214,31 @@
       <c r="M59" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>184</v>
+      </c>
+      <c r="O59">
+        <v>250</v>
+      </c>
+      <c r="P59">
+        <f>ROUND(O59*P$1/5,0)*5</f>
+        <v>300</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R59" t="s">
+        <v>2</v>
+      </c>
+      <c r="S59" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" t="str">
+        <f>_xlfn.CONCAT(Q59,N59,R59,P59,S59)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STAR_FORT" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>201</v>
       </c>
@@ -4884,8 +6278,31 @@
       <c r="M60" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>206</v>
+      </c>
+      <c r="O60">
+        <v>300</v>
+      </c>
+      <c r="P60">
+        <f>ROUND(O60*P$1/5,0)*5</f>
+        <v>360</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R60" t="s">
+        <v>2</v>
+      </c>
+      <c r="S60" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" t="str">
+        <f>_xlfn.CONCAT(Q60,N60,R60,P60,S60)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FOOD_MARKET" /&gt;&lt;Set Cost="360"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>203</v>
       </c>
@@ -4925,8 +6342,31 @@
       <c r="M61" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" t="s">
+        <v>188</v>
+      </c>
+      <c r="O61">
+        <v>330</v>
+      </c>
+      <c r="P61">
+        <f>ROUND(O61*P$1/5,0)*5</f>
+        <v>400</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R61" t="s">
+        <v>2</v>
+      </c>
+      <c r="S61" t="s">
+        <v>3</v>
+      </c>
+      <c r="T61" t="str">
+        <f>_xlfn.CONCAT(Q61,N61,R61,P61,S61)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FACTORY" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>205</v>
       </c>
@@ -4966,8 +6406,31 @@
       <c r="M62" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>190</v>
+      </c>
+      <c r="O62">
+        <v>330</v>
+      </c>
+      <c r="P62">
+        <f>ROUND(O62*P$1/5,0)*5</f>
+        <v>400</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R62" t="s">
+        <v>2</v>
+      </c>
+      <c r="S62" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" t="str">
+        <f>_xlfn.CONCAT(Q62,N62,R62,P62,S62)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ELECTRONICS_FACTORY" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -5007,8 +6470,31 @@
       <c r="M63" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>192</v>
+      </c>
+      <c r="O63">
+        <v>330</v>
+      </c>
+      <c r="P63">
+        <f>ROUND(O63*P$1/5,0)*5</f>
+        <v>400</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R63" t="s">
+        <v>2</v>
+      </c>
+      <c r="S63" t="s">
+        <v>3</v>
+      </c>
+      <c r="T63" t="str">
+        <f>_xlfn.CONCAT(Q63,N63,R63,P63,S63)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STOCK_EXCHANGE" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -5048,8 +6534,31 @@
       <c r="M64" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>194</v>
+      </c>
+      <c r="O64">
+        <v>330</v>
+      </c>
+      <c r="P64">
+        <f>ROUND(O64*P$1/5,0)*5</f>
+        <v>400</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R64" t="s">
+        <v>2</v>
+      </c>
+      <c r="S64" t="s">
+        <v>3</v>
+      </c>
+      <c r="T64" t="str">
+        <f>_xlfn.CONCAT(Q64,N64,R64,P64,S64)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MILITARY_ACADEMY" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>211</v>
       </c>
@@ -5089,8 +6598,31 @@
       <c r="M65" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>186</v>
+      </c>
+      <c r="O65">
+        <v>330</v>
+      </c>
+      <c r="P65">
+        <f>ROUND(O65*P$1/5,0)*5</f>
+        <v>400</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R65" t="s">
+        <v>2</v>
+      </c>
+      <c r="S65" t="s">
+        <v>3</v>
+      </c>
+      <c r="T65" t="str">
+        <f>_xlfn.CONCAT(Q65,N65,R65,P65,S65)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_COAL_POWER_PLANT" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>213</v>
       </c>
@@ -5130,8 +6662,31 @@
       <c r="M66" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>224</v>
+      </c>
+      <c r="O66">
+        <v>330</v>
+      </c>
+      <c r="P66">
+        <f>ROUND(O66*P$1/5,0)*5</f>
+        <v>400</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R66" t="s">
+        <v>2</v>
+      </c>
+      <c r="S66" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" t="str">
+        <f>_xlfn.CONCAT(Q66,N66,R66,P66,S66)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SANCTUARY" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -5171,8 +6726,31 @@
       <c r="M67" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>287</v>
+      </c>
+      <c r="O67">
+        <v>330</v>
+      </c>
+      <c r="P67">
+        <f>ROUND(O67*P$1/5,0)*5</f>
+        <v>400</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R67" t="s">
+        <v>2</v>
+      </c>
+      <c r="S67" t="s">
+        <v>3</v>
+      </c>
+      <c r="T67" t="str">
+        <f>_xlfn.CONCAT(Q67,N67,R67,P67,S67)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HOSPITAL" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>217</v>
       </c>
@@ -5212,8 +6790,31 @@
       <c r="M68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" t="s">
+        <v>288</v>
+      </c>
+      <c r="O68">
+        <v>330</v>
+      </c>
+      <c r="P68">
+        <f>ROUND(O68*P$1/5,0)*5</f>
+        <v>400</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R68" t="s">
+        <v>2</v>
+      </c>
+      <c r="S68" t="s">
+        <v>3</v>
+      </c>
+      <c r="T68" t="str">
+        <f>_xlfn.CONCAT(Q68,N68,R68,P68,S68)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_OPERA_HOUSE" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>219</v>
       </c>
@@ -5253,8 +6854,31 @@
       <c r="M69" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" t="s">
+        <v>289</v>
+      </c>
+      <c r="O69">
+        <v>330</v>
+      </c>
+      <c r="P69">
+        <f>ROUND(O69*P$1/5,0)*5</f>
+        <v>400</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R69" t="s">
+        <v>2</v>
+      </c>
+      <c r="S69" t="s">
+        <v>3</v>
+      </c>
+      <c r="T69" t="str">
+        <f>_xlfn.CONCAT(Q69,N69,R69,P69,S69)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PUBLIC_SCHOOL" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>221</v>
       </c>
@@ -5294,8 +6918,31 @@
       <c r="M70" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>198</v>
+      </c>
+      <c r="O70">
+        <v>350</v>
+      </c>
+      <c r="P70">
+        <f>ROUND(O70*P$1/5,0)*5</f>
+        <v>420</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R70" t="s">
+        <v>2</v>
+      </c>
+      <c r="S70" t="s">
+        <v>3</v>
+      </c>
+      <c r="T70" t="str">
+        <f>_xlfn.CONCAT(Q70,N70,R70,P70,S70)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_AQUARIUM" /&gt;&lt;Set Cost="420"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>223</v>
       </c>
@@ -5335,8 +6982,31 @@
       <c r="M71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" t="s">
+        <v>204</v>
+      </c>
+      <c r="O71">
+        <v>370</v>
+      </c>
+      <c r="P71">
+        <f>ROUND(O71*P$1/5,0)*5</f>
+        <v>445</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R71" t="s">
+        <v>2</v>
+      </c>
+      <c r="S71" t="s">
+        <v>3</v>
+      </c>
+      <c r="T71" t="str">
+        <f>_xlfn.CONCAT(Q71,N71,R71,P71,S71)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HANGAR" /&gt;&lt;Set Cost="445"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>225</v>
       </c>
@@ -5376,8 +7046,31 @@
       <c r="M72" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
+        <v>290</v>
+      </c>
+      <c r="O72">
+        <v>430</v>
+      </c>
+      <c r="P72">
+        <f>ROUND(O72*P$1/5,0)*5</f>
+        <v>520</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R72" t="s">
+        <v>2</v>
+      </c>
+      <c r="S72" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" t="str">
+        <f>_xlfn.CONCAT(Q72,N72,R72,P72,S72)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SEAPORT" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>227</v>
       </c>
@@ -5417,8 +7110,31 @@
       <c r="M73" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" t="s">
+        <v>208</v>
+      </c>
+      <c r="O73">
+        <v>430</v>
+      </c>
+      <c r="P73">
+        <f>ROUND(O73*P$1/5,0)*5</f>
+        <v>520</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R73" t="s">
+        <v>2</v>
+      </c>
+      <c r="S73" t="s">
+        <v>3</v>
+      </c>
+      <c r="T73" t="str">
+        <f>_xlfn.CONCAT(Q73,N73,R73,P73,S73)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BROADCAST_CENTER" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>229</v>
       </c>
@@ -5458,8 +7174,31 @@
       <c r="M74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>210</v>
+      </c>
+      <c r="O74">
+        <v>430</v>
+      </c>
+      <c r="P74">
+        <f>ROUND(O74*P$1/5,0)*5</f>
+        <v>520</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R74" t="s">
+        <v>2</v>
+      </c>
+      <c r="S74" t="s">
+        <v>3</v>
+      </c>
+      <c r="T74" t="str">
+        <f>_xlfn.CONCAT(Q74,N74,R74,P74,S74)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FILM_STUDIO" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>231</v>
       </c>
@@ -5499,8 +7238,31 @@
       <c r="M75" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>214</v>
+      </c>
+      <c r="O75">
+        <v>430</v>
+      </c>
+      <c r="P75">
+        <f>ROUND(O75*P$1/5,0)*5</f>
+        <v>520</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R75" t="s">
+        <v>2</v>
+      </c>
+      <c r="S75" t="s">
+        <v>3</v>
+      </c>
+      <c r="T75" t="str">
+        <f>_xlfn.CONCAT(Q75,N75,R75,P75,S75)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_MILITARY" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>233</v>
       </c>
@@ -5540,8 +7302,31 @@
       <c r="M76" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" t="s">
+        <v>216</v>
+      </c>
+      <c r="O76">
+        <v>430</v>
+      </c>
+      <c r="P76">
+        <f>ROUND(O76*P$1/5,0)*5</f>
+        <v>520</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R76" t="s">
+        <v>2</v>
+      </c>
+      <c r="S76" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" t="str">
+        <f>_xlfn.CONCAT(Q76,N76,R76,P76,S76)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_CULTURE" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>234</v>
       </c>
@@ -5581,8 +7366,31 @@
       <c r="M77" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
+        <v>218</v>
+      </c>
+      <c r="O77">
+        <v>430</v>
+      </c>
+      <c r="P77">
+        <f>ROUND(O77*P$1/5,0)*5</f>
+        <v>520</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R77" t="s">
+        <v>2</v>
+      </c>
+      <c r="S77" t="s">
+        <v>3</v>
+      </c>
+      <c r="T77" t="str">
+        <f>_xlfn.CONCAT(Q77,N77,R77,P77,S77)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_SCIENCE" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>235</v>
       </c>
@@ -5622,8 +7430,31 @@
       <c r="M78" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>220</v>
+      </c>
+      <c r="O78">
+        <v>430</v>
+      </c>
+      <c r="P78">
+        <f>ROUND(O78*P$1/5,0)*5</f>
+        <v>520</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R78" t="s">
+        <v>2</v>
+      </c>
+      <c r="S78" t="s">
+        <v>3</v>
+      </c>
+      <c r="T78" t="str">
+        <f>_xlfn.CONCAT(Q78,N78,R78,P78,S78)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SHOPPING_MALL" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>237</v>
       </c>
@@ -5663,8 +7494,31 @@
       <c r="M79" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>222</v>
+      </c>
+      <c r="O79">
+        <v>430</v>
+      </c>
+      <c r="P79">
+        <f>ROUND(O79*P$1/5,0)*5</f>
+        <v>520</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R79" t="s">
+        <v>2</v>
+      </c>
+      <c r="S79" t="s">
+        <v>3</v>
+      </c>
+      <c r="T79" t="str">
+        <f>_xlfn.CONCAT(Q79,N79,R79,P79,S79)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HYDROELECTRIC_DAM" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>239</v>
       </c>
@@ -5704,8 +7558,31 @@
       <c r="M80" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" t="s">
+        <v>200</v>
+      </c>
+      <c r="O80">
+        <v>430</v>
+      </c>
+      <c r="P80">
+        <f>ROUND(O80*P$1/5,0)*5</f>
+        <v>520</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R80" t="s">
+        <v>2</v>
+      </c>
+      <c r="S80" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" t="str">
+        <f>_xlfn.CONCAT(Q80,N80,R80,P80,S80)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FOSSIL_FUEL_POWER_PLANT" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>240</v>
       </c>
@@ -5745,8 +7622,31 @@
       <c r="M81" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" t="s">
+        <v>291</v>
+      </c>
+      <c r="O81">
+        <v>430</v>
+      </c>
+      <c r="P81">
+        <f>ROUND(O81*P$1/5,0)*5</f>
+        <v>520</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R81" t="s">
+        <v>2</v>
+      </c>
+      <c r="S81" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" t="str">
+        <f>_xlfn.CONCAT(Q81,N81,R81,P81,S81)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MEDICAL_LAB" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>241</v>
       </c>
@@ -5786,8 +7686,31 @@
       <c r="M82" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>292</v>
+      </c>
+      <c r="O82">
+        <v>430</v>
+      </c>
+      <c r="P82">
+        <f>ROUND(O82*P$1/5,0)*5</f>
+        <v>520</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R82" t="s">
+        <v>2</v>
+      </c>
+      <c r="S82" t="s">
+        <v>3</v>
+      </c>
+      <c r="T82" t="str">
+        <f>_xlfn.CONCAT(Q82,N82,R82,P82,S82)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_VIVARIUM" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>242</v>
       </c>
@@ -5818,8 +7741,31 @@
         <f t="shared" si="7"/>
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_CUIRASSIER" /&gt;&lt;Set Cost="285"/&gt;&lt;/Update&gt;</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>230</v>
+      </c>
+      <c r="O83">
+        <v>450</v>
+      </c>
+      <c r="P83">
+        <f>ROUND(O83*P$1/5,0)*5</f>
+        <v>540</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R83" t="s">
+        <v>2</v>
+      </c>
+      <c r="S83" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" t="str">
+        <f>_xlfn.CONCAT(Q83,N83,R83,P83,S83)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STADIUM" /&gt;&lt;Set Cost="540"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>243</v>
       </c>
@@ -5850,8 +7796,31 @@
         <f t="shared" si="7"/>
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_COLOMBIAN_LLANERO" /&gt;&lt;Set Cost="285"/&gt;&lt;/Update&gt;</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" t="s">
+        <v>226</v>
+      </c>
+      <c r="O84">
+        <v>540</v>
+      </c>
+      <c r="P84">
+        <f>ROUND(O84*P$1/5,0)*5</f>
+        <v>650</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R84" t="s">
+        <v>2</v>
+      </c>
+      <c r="S84" t="s">
+        <v>3</v>
+      </c>
+      <c r="T84" t="str">
+        <f>_xlfn.CONCAT(Q84,N84,R84,P84,S84)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_POWER_PLANT" /&gt;&lt;Set Cost="650"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>244</v>
       </c>
@@ -5882,8 +7851,31 @@
         <f t="shared" si="7"/>
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_HUNGARY_HUSZAR" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" t="s">
+        <v>212</v>
+      </c>
+      <c r="O85">
+        <v>540</v>
+      </c>
+      <c r="P85">
+        <f>ROUND(O85*P$1/5,0)*5</f>
+        <v>650</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R85" t="s">
+        <v>2</v>
+      </c>
+      <c r="S85" t="s">
+        <v>3</v>
+      </c>
+      <c r="T85" t="str">
+        <f>_xlfn.CONCAT(Q85,N85,R85,P85,S85)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_RESEARCH_LAB" /&gt;&lt;Set Cost="650"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>245</v>
       </c>
@@ -5914,8 +7906,31 @@
         <f t="shared" si="7"/>
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_RUSSIAN_COSSACK" /&gt;&lt;Set Cost="295"/&gt;&lt;/Update&gt;</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>228</v>
+      </c>
+      <c r="O86">
+        <v>540</v>
+      </c>
+      <c r="P86">
+        <f>ROUND(O86*P$1/5,0)*5</f>
+        <v>650</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R86" t="s">
+        <v>2</v>
+      </c>
+      <c r="S86" t="s">
+        <v>3</v>
+      </c>
+      <c r="T86" t="str">
+        <f>_xlfn.CONCAT(Q86,N86,R86,P86,S86)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_AIRPORT" /&gt;&lt;Set Cost="650"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>246</v>
       </c>
@@ -5946,8 +7961,31 @@
         <f t="shared" si="7"/>
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ENGLISH_REDCOAT" /&gt;&lt;Set Cost="315"/&gt;&lt;/Update&gt;</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" t="s">
+        <v>232</v>
+      </c>
+      <c r="O87">
+        <v>540</v>
+      </c>
+      <c r="P87">
+        <f>ROUND(O87*P$1/5,0)*5</f>
+        <v>650</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R87" t="s">
+        <v>2</v>
+      </c>
+      <c r="S87" t="s">
+        <v>3</v>
+      </c>
+      <c r="T87" t="str">
+        <f>_xlfn.CONCAT(Q87,N87,R87,P87,S87)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_AQUATICS_CENTER" /&gt;&lt;Set Cost="650"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>247</v>
       </c>
@@ -5978,8 +8016,31 @@
         <f t="shared" si="7"/>
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_FRENCH_GARDE_IMPERIALE" /&gt;&lt;Set Cost="315"/&gt;&lt;/Update&gt;</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>293</v>
+      </c>
+      <c r="O88">
+        <v>650</v>
+      </c>
+      <c r="P88">
+        <f>ROUND(O88*P$1/5,0)*5</f>
+        <v>785</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R88" t="s">
+        <v>2</v>
+      </c>
+      <c r="S88" t="s">
+        <v>3</v>
+      </c>
+      <c r="T88" t="str">
+        <f>_xlfn.CONCAT(Q88,N88,R88,P88,S88)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MANUFACTURING_PLANT" /&gt;&lt;Set Cost="785"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -6010,8 +8071,31 @@
         <f t="shared" si="7"/>
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_LINE_INFANTRY" /&gt;&lt;Set Cost="315"/&gt;&lt;/Update&gt;</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" t="s">
+        <v>294</v>
+      </c>
+      <c r="O89">
+        <v>650</v>
+      </c>
+      <c r="P89">
+        <f>ROUND(O89*P$1/5,0)*5</f>
+        <v>785</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R89" t="s">
+        <v>2</v>
+      </c>
+      <c r="S89" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" t="str">
+        <f>_xlfn.CONCAT(Q89,N89,R89,P89,S89)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_VISITOR_CENTER" /&gt;&lt;Set Cost="785"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -6043,7 +8127,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MEDIC" /&gt;&lt;Set Cost="320"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -6075,7 +8159,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_IRONCLAD" /&gt;&lt;Set Cost="330"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -6107,7 +8191,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_RANGER" /&gt;&lt;Set Cost="330"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -6139,7 +8223,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SCOTTISH_HIGHLANDER" /&gt;&lt;Set Cost="330"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -6171,7 +8255,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_AMERICAN_ROUGH_RIDER" /&gt;&lt;Set Cost="335"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>255</v>
       </c>
@@ -6203,7 +8287,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_AT_CREW" /&gt;&lt;Set Cost="350"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>256</v>
       </c>
@@ -7099,23 +9183,215 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MODERN_ARMOR" /&gt;&lt;Set Cost="590"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>79</v>
+      </c>
+      <c r="B125">
+        <v>40</v>
+      </c>
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125">
+        <f>ROUND(B125*D$1/5,0)*5</f>
+        <v>30</v>
+      </c>
+      <c r="E125">
+        <f>ROUND(B125*E$1/5,0)*5</f>
+        <v>35</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>2</v>
+      </c>
+      <c r="H125" t="s">
+        <v>3</v>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" ref="I125:I134" si="11">_xlfn.CONCAT(F125,A125,G125,E125,H125)</f>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_TRADER" /&gt;&lt;Set Cost="35"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>87</v>
+      </c>
+      <c r="B126">
+        <v>50</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126">
+        <f>ROUND(B126*D$1/5,0)*5</f>
+        <v>40</v>
+      </c>
+      <c r="E126">
+        <f>ROUND(B126*E$1/5,0)*5</f>
+        <v>45</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>2</v>
+      </c>
+      <c r="H126" t="s">
+        <v>3</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_BUILDER" /&gt;&lt;Set Cost="45"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>145</v>
+      </c>
+      <c r="B127">
+        <v>120</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127">
+        <f>ROUND(B127*D$1/5,0)*5</f>
+        <v>95</v>
+      </c>
+      <c r="E127">
+        <f>ROUND(B127*E$1/5,0)*5</f>
+        <v>105</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>2</v>
+      </c>
+      <c r="H127" t="s">
+        <v>3</v>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_GURU" /&gt;&lt;Set Cost="105"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>115</v>
+      </c>
+      <c r="B128">
+        <v>75</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128">
+        <f>ROUND(B128*D$1/5,0)*5</f>
+        <v>60</v>
+      </c>
+      <c r="E128">
+        <f>ROUND(B128*E$1/5,0)*5</f>
+        <v>65</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>2</v>
+      </c>
+      <c r="H128" t="s">
+        <v>3</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_MISSIONARY" /&gt;&lt;Set Cost="65"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>117</v>
+      </c>
+      <c r="B129">
+        <v>75</v>
+      </c>
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129">
+        <f>ROUND(B129*D$1/5,0)*5</f>
+        <v>60</v>
+      </c>
+      <c r="E129">
+        <f>ROUND(B129*E$1/5,0)*5</f>
+        <v>65</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>2</v>
+      </c>
+      <c r="H129" t="s">
+        <v>3</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_INQUISITOR" /&gt;&lt;Set Cost="65"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>119</v>
+      </c>
+      <c r="B130">
+        <v>80</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130">
+        <f>ROUND(B130*D$1/5,0)*5</f>
+        <v>60</v>
+      </c>
+      <c r="E130">
+        <f>ROUND(B130*E$1/5,0)*5</f>
+        <v>70</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
+        <v>2</v>
+      </c>
+      <c r="H130" t="s">
+        <v>3</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_SETTLER" /&gt;&lt;Set Cost="70"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="B131">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D140" si="11">ROUND(B131*D$1/5,0)*5</f>
-        <v>30</v>
+        <f>ROUND(B131*D$1/5,0)*5</f>
+        <v>155</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E140" si="12">ROUND(B131*E$1/5,0)*5</f>
-        <v>35</v>
+        <f>ROUND(B131*E$1/5,0)*5</f>
+        <v>175</v>
       </c>
       <c r="F131" t="s">
         <v>1</v>
@@ -7127,27 +9403,27 @@
         <v>3</v>
       </c>
       <c r="I131" t="str">
-        <f t="shared" ref="I131:I140" si="13">_xlfn.CONCAT(F131,A131,G131,E131,H131)</f>
-        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_TRADER" /&gt;&lt;Set Cost="35"/&gt;&lt;/Update&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_APOSTLE" /&gt;&lt;Set Cost="175"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="B132">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D132">
-        <f t="shared" si="11"/>
-        <v>40</v>
+        <f>ROUND(B132*D$1/5,0)*5</f>
+        <v>235</v>
       </c>
       <c r="E132">
-        <f t="shared" si="12"/>
-        <v>45</v>
+        <f>ROUND(B132*E$1/5,0)*5</f>
+        <v>260</v>
       </c>
       <c r="F132" t="s">
         <v>1</v>
@@ -7159,27 +9435,27 @@
         <v>3</v>
       </c>
       <c r="I132" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_BUILDER" /&gt;&lt;Set Cost="45"/&gt;&lt;/Update&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_ROCK_BAND" /&gt;&lt;Set Cost="260"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="B133">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D133">
-        <f t="shared" si="11"/>
-        <v>95</v>
+        <f>ROUND(B133*D$1/5,0)*5</f>
+        <v>235</v>
       </c>
       <c r="E133">
-        <f t="shared" si="12"/>
-        <v>105</v>
+        <f>ROUND(B133*E$1/5,0)*5</f>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
         <v>1</v>
@@ -7191,27 +9467,27 @@
         <v>3</v>
       </c>
       <c r="I133" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_GURU" /&gt;&lt;Set Cost="105"/&gt;&lt;/Update&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_NATURALIST" /&gt;&lt;Set Cost="260"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="B134">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D134">
-        <f t="shared" si="11"/>
-        <v>60</v>
+        <f>ROUND(B134*D$1/5,0)*5</f>
+        <v>310</v>
       </c>
       <c r="E134">
-        <f t="shared" si="12"/>
-        <v>65</v>
+        <f>ROUND(B134*E$1/5,0)*5</f>
+        <v>350</v>
       </c>
       <c r="F134" t="s">
         <v>1</v>
@@ -7223,343 +9499,154 @@
         <v>3</v>
       </c>
       <c r="I134" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_MISSIONARY" /&gt;&lt;Set Cost="65"/&gt;&lt;/Update&gt;</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>117</v>
-      </c>
-      <c r="B135">
-        <v>75</v>
-      </c>
-      <c r="C135" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135">
         <f t="shared" si="11"/>
-        <v>60</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="12"/>
-        <v>65</v>
-      </c>
-      <c r="F135" t="s">
-        <v>1</v>
-      </c>
-      <c r="G135" t="s">
-        <v>2</v>
-      </c>
-      <c r="H135" t="s">
-        <v>3</v>
-      </c>
-      <c r="I135" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_INQUISITOR" /&gt;&lt;Set Cost="65"/&gt;&lt;/Update&gt;</v>
+        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_ARCHAEOLOGIST" /&gt;&lt;Set Cost="350"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B136">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136">
-        <f t="shared" si="11"/>
-        <v>60</v>
+        <v>285</v>
       </c>
       <c r="E136">
-        <f t="shared" si="12"/>
-        <v>70</v>
-      </c>
-      <c r="F136" t="s">
-        <v>1</v>
-      </c>
-      <c r="G136" t="s">
-        <v>2</v>
-      </c>
-      <c r="H136" t="s">
-        <v>3</v>
-      </c>
-      <c r="I136" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_SETTLER" /&gt;&lt;Set Cost="70"/&gt;&lt;/Update&gt;</v>
+        <v>400</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="B137">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
-      </c>
-      <c r="D137">
-        <f t="shared" si="11"/>
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="E137">
-        <f t="shared" si="12"/>
-        <v>175</v>
-      </c>
-      <c r="F137" t="s">
-        <v>1</v>
-      </c>
-      <c r="G137" t="s">
-        <v>2</v>
-      </c>
-      <c r="H137" t="s">
-        <v>3</v>
-      </c>
-      <c r="I137" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_APOSTLE" /&gt;&lt;Set Cost="175"/&gt;&lt;/Update&gt;</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="B138">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
-      </c>
-      <c r="D138">
-        <f t="shared" si="11"/>
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="E138">
-        <f t="shared" si="12"/>
-        <v>260</v>
-      </c>
-      <c r="F138" t="s">
-        <v>1</v>
-      </c>
-      <c r="G138" t="s">
-        <v>2</v>
-      </c>
-      <c r="H138" t="s">
-        <v>3</v>
-      </c>
-      <c r="I138" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_ROCK_BAND" /&gt;&lt;Set Cost="260"/&gt;&lt;/Update&gt;</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>236</v>
+      <c r="A139" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="B139">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
-      </c>
-      <c r="D139">
-        <f t="shared" si="11"/>
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="E139">
-        <f t="shared" si="12"/>
-        <v>260</v>
-      </c>
-      <c r="F139" t="s">
-        <v>1</v>
-      </c>
-      <c r="G139" t="s">
-        <v>2</v>
-      </c>
-      <c r="H139" t="s">
-        <v>3</v>
-      </c>
-      <c r="I139" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_NATURALIST" /&gt;&lt;Set Cost="260"/&gt;&lt;/Update&gt;</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="B140">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
-      </c>
-      <c r="D140">
-        <f t="shared" si="11"/>
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="E140">
-        <f t="shared" si="12"/>
-        <v>350</v>
-      </c>
-      <c r="F140" t="s">
-        <v>1</v>
-      </c>
-      <c r="G140" t="s">
-        <v>2</v>
-      </c>
-      <c r="H140" t="s">
-        <v>3</v>
-      </c>
-      <c r="I140" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_ARCHAEOLOGIST" /&gt;&lt;Set Cost="350"/&gt;&lt;/Update&gt;</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>117</v>
+      </c>
+      <c r="B141">
+        <v>75</v>
+      </c>
+      <c r="C141" t="s">
+        <v>286</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="B142">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="C142" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E142">
-        <v>400</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="B143">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="C143" t="s">
         <v>286</v>
       </c>
       <c r="E143">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="B144">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="C144" t="s">
         <v>286</v>
       </c>
       <c r="E144">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="B145">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="C145" t="s">
         <v>286</v>
       </c>
       <c r="E145">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>183</v>
-      </c>
-      <c r="B146">
-        <v>170</v>
-      </c>
-      <c r="C146" t="s">
-        <v>286</v>
-      </c>
-      <c r="E146">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>117</v>
-      </c>
-      <c r="B147">
-        <v>75</v>
-      </c>
-      <c r="C147" t="s">
-        <v>286</v>
-      </c>
-      <c r="E147">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148">
-        <v>100</v>
-      </c>
-      <c r="C148" t="s">
-        <v>286</v>
-      </c>
-      <c r="E148">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>205</v>
-      </c>
-      <c r="B149">
-        <v>200</v>
-      </c>
-      <c r="C149" t="s">
-        <v>286</v>
-      </c>
-      <c r="E149">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>236</v>
-      </c>
-      <c r="B150">
-        <v>250</v>
-      </c>
-      <c r="C150" t="s">
-        <v>286</v>
-      </c>
-      <c r="E150">
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>238</v>
-      </c>
-      <c r="B151">
-        <v>250</v>
-      </c>
-      <c r="C151" t="s">
-        <v>286</v>
-      </c>
-      <c r="E151">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:P89">
+    <sortCondition ref="O2:O89"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/文档/生产力造价.xlsx
+++ b/文档/生产力造价.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5B466B-7A08-492E-9E7C-D3C0BD816269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04A7A90-820B-4DCD-8CC7-8FF9E7F35DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="奇观" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="296">
   <si>
     <t>BUILDING_STONEHENGE</t>
   </si>
@@ -913,13 +913,7 @@
     <t>BUILDING_MEDICAL_LAB</t>
   </si>
   <si>
-    <t>BUILDING_VIVARIUM</t>
-  </si>
-  <si>
     <t>BUILDING_MANUFACTURING_PLANT</t>
-  </si>
-  <si>
-    <t>BUILDING_VISITOR_CENTER</t>
   </si>
   <si>
     <t>&lt;Update&gt;&lt;Where BuildingType="</t>
@@ -1271,17 +1265,17 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.625" customWidth="1"/>
-    <col min="8" max="8" width="12.625"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="46.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="46.21875" hidden="1" customWidth="1"/>
     <col min="12" max="13" width="9" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1300,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STONEHENGE" /&gt;&lt;Set Cost="150"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +1316,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HANGING_GARDENS" /&gt;&lt;Set Cost="150"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1338,7 +1332,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TEMPLE_ARTEMIS" /&gt;&lt;Set Cost="150"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1354,7 +1348,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_BATH" /&gt;&lt;Set Cost="150"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1364,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PYRAMIDS" /&gt;&lt;Set Cost="175"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1398,7 +1392,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ETEMENANKI" /&gt;&lt;Set Cost="175"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1433,7 +1427,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ORACLE" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1468,7 +1462,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_LIGHTHOUSE" /&gt;&lt;Set Cost="250"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1503,7 +1497,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_COLOSSUS" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1538,7 +1532,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PETRA" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1573,7 +1567,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_COLOSSEUM" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1608,7 +1602,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_LIBRARY" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1623,7 +1617,7 @@
         <v>26</v>
       </c>
       <c r="F13">
-        <f>建筑单位!P85</f>
+        <f>建筑单位!P84</f>
         <v>650</v>
       </c>
       <c r="G13">
@@ -1643,7 +1637,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MAHABODHI_TEMPLE" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1658,7 +1652,7 @@
         <v>28</v>
       </c>
       <c r="F14">
-        <f>建筑单位!P88</f>
+        <f>建筑单位!P87</f>
         <v>785</v>
       </c>
       <c r="G14">
@@ -1678,7 +1672,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TERRACOTTA_ARMY" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1694,7 +1688,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_JEBEL_BARKAL" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1710,7 +1704,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_APADANA" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1735,7 +1729,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HALICARNASSUS_MAUSOLEUM" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1764,7 +1758,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MACHU_PICCHU" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1793,7 +1787,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STATUE_OF_ZEUS" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1822,7 +1816,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HAGIA_SOPHIA" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1851,7 +1845,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ALHAMBRA" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1880,7 +1874,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CHICHEN_ITZA" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1909,7 +1903,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MONT_ST_MICHEL" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1938,7 +1932,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HUEY_TEOCALLI" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1967,7 +1961,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ANGKOR_WAT" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1996,7 +1990,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_KILWA_KISIWANI" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2025,7 +2019,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_KOTOKU_IN" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2054,7 +2048,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MEENAKSHI_TEMPLE" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2083,7 +2077,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_UNIVERSITY_SANKORE" /&gt;&lt;Set Cost="480"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -2099,7 +2093,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_VENETIAN_ARSENAL" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2115,7 +2109,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GREAT_ZIMBABWE" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2131,7 +2125,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FORBIDDEN_CITY" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2147,7 +2141,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CASA_DE_CONTRATACION" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2163,7 +2157,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ST_BASILS_CATHEDRAL" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2179,7 +2173,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TAJ_MAHAL" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -2195,7 +2189,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ORSZAGHAZ" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -2211,7 +2205,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PANAMA_CANAL" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -2227,7 +2221,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TORRE_DE_BELEM" /&gt;&lt;Set Cost="600"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2243,7 +2237,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_POTALA_PALACE" /&gt;&lt;Set Cost="725"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2259,7 +2253,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_RUHR_VALLEY" /&gt;&lt;Set Cost="850"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -2275,7 +2269,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BOLSHOI_THEATRE" /&gt;&lt;Set Cost="850"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -2291,7 +2285,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_OXFORD_UNIVERSITY" /&gt;&lt;Set Cost="850"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -2307,7 +2301,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STATUE_LIBERTY" /&gt;&lt;Set Cost="850"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -2323,7 +2317,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BIG_BEN" /&gt;&lt;Set Cost="1000"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -2339,7 +2333,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HERMITAGE" /&gt;&lt;Set Cost="1000"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -2355,7 +2349,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_EIFFEL_TOWER" /&gt;&lt;Set Cost="1280"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -2371,7 +2365,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BROADWAY" /&gt;&lt;Set Cost="1280"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -2387,7 +2381,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CRISTO_REDENTOR" /&gt;&lt;Set Cost="1280"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -2403,7 +2397,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_AMUNDSEN_SCOTT_RESEARCH_STATION" /&gt;&lt;Set Cost="1280"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -2419,7 +2413,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOLDEN_GATE_BRIDGE" /&gt;&lt;Set Cost="1280"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -2435,7 +2429,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ESTADIO_DO_MARACANA" /&gt;&lt;Set Cost="1365"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -2451,7 +2445,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BIOSPHERE" /&gt;&lt;Set Cost="1365"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2480,21 +2474,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="6" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="75.75" customWidth="1"/>
+    <col min="9" max="9" width="75.77734375" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
-    <col min="14" max="14" width="20.5" customWidth="1"/>
-    <col min="20" max="20" width="75.75" customWidth="1"/>
+    <col min="14" max="14" width="28.44140625" customWidth="1"/>
+    <col min="20" max="20" width="75.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D1">
         <v>0.78</v>
       </c>
@@ -2511,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P1">
         <v>1.2050000000000001</v>
@@ -2526,7 +2520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2577,7 +2571,7 @@
         <v>50</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R2" t="s">
         <v>2</v>
@@ -2590,7 +2584,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MONUMENT" /&gt;&lt;Set Cost="50"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -2641,7 +2635,7 @@
         <v>60</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R3" t="s">
         <v>2</v>
@@ -2654,7 +2648,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GRANARY" /&gt;&lt;Set Cost="60"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -2705,7 +2699,7 @@
         <v>65</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R4" t="s">
         <v>2</v>
@@ -2718,7 +2712,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SHRINE" /&gt;&lt;Set Cost="65"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -2769,7 +2763,7 @@
         <v>70</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R5" t="s">
         <v>2</v>
@@ -2782,7 +2776,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_WALLS" /&gt;&lt;Set Cost="70"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -2833,7 +2827,7 @@
         <v>70</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R6" t="s">
         <v>2</v>
@@ -2846,7 +2840,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_WATER_MILL" /&gt;&lt;Set Cost="70"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2897,7 +2891,7 @@
         <v>70</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R7" t="s">
         <v>2</v>
@@ -2910,7 +2904,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FLOOD_BARRIER" /&gt;&lt;Set Cost="70"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2961,7 +2955,7 @@
         <v>70</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R8" t="s">
         <v>2</v>
@@ -2974,7 +2968,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PALGUM" /&gt;&lt;Set Cost="70"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -3025,7 +3019,7 @@
         <v>85</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R9" t="s">
         <v>2</v>
@@ -3038,7 +3032,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BARRACKS" /&gt;&lt;Set Cost="85"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -3089,7 +3083,7 @@
         <v>85</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R10" t="s">
         <v>2</v>
@@ -3102,7 +3096,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_LIBRARY" /&gt;&lt;Set Cost="85"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -3153,7 +3147,7 @@
         <v>85</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R11" t="s">
         <v>2</v>
@@ -3166,7 +3160,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BASILIKOI_PAIDES" /&gt;&lt;Set Cost="85"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -3217,7 +3211,7 @@
         <v>110</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R12" t="s">
         <v>2</v>
@@ -3230,7 +3224,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GROVE" /&gt;&lt;Set Cost="110"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -3281,7 +3275,7 @@
         <v>120</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R13" t="s">
         <v>2</v>
@@ -3294,7 +3288,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_LIGHTHOUSE" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -3345,7 +3339,7 @@
         <v>120</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R14" t="s">
         <v>2</v>
@@ -3358,7 +3352,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MARKET" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -3409,7 +3403,7 @@
         <v>120</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R15" t="s">
         <v>2</v>
@@ -3422,7 +3416,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STABLE" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -3473,7 +3467,7 @@
         <v>120</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R16" t="s">
         <v>2</v>
@@ -3486,7 +3480,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TEMPLE" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -3537,7 +3531,7 @@
         <v>120</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R17" t="s">
         <v>2</v>
@@ -3550,7 +3544,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STAVE_CHURCH" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -3601,7 +3595,7 @@
         <v>120</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R18" t="s">
         <v>2</v>
@@ -3614,7 +3608,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SEWER" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -3665,7 +3659,7 @@
         <v>120</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R19" t="s">
         <v>2</v>
@@ -3678,7 +3672,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PRASAT" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3729,7 +3723,7 @@
         <v>120</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R20" t="s">
         <v>2</v>
@@ -3742,7 +3736,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SUKIENNICE" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -3793,7 +3787,7 @@
         <v>120</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R21" t="s">
         <v>2</v>
@@ -3806,7 +3800,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ORDU" /&gt;&lt;Set Cost="120"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -3857,7 +3851,7 @@
         <v>125</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R22" t="s">
         <v>2</v>
@@ -3870,7 +3864,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TLACHTLI" /&gt;&lt;Set Cost="125"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -3921,7 +3915,7 @@
         <v>135</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R23" t="s">
         <v>2</v>
@@ -3934,7 +3928,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ARENA" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>125</v>
       </c>
@@ -3985,7 +3979,7 @@
         <v>135</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R24" t="s">
         <v>2</v>
@@ -3998,7 +3992,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_AMPHITHEATER" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -4049,7 +4043,7 @@
         <v>135</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R25" t="s">
         <v>2</v>
@@ -4062,7 +4056,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_TALL" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -4113,7 +4107,7 @@
         <v>135</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R26" t="s">
         <v>2</v>
@@ -4126,7 +4120,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_WIDE" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -4177,7 +4171,7 @@
         <v>135</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R27" t="s">
         <v>2</v>
@@ -4190,7 +4184,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_CONQUEST" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -4241,7 +4235,7 @@
         <v>135</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R28" t="s">
         <v>2</v>
@@ -4254,7 +4248,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MARAE" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -4305,7 +4299,7 @@
         <v>135</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R29" t="s">
         <v>2</v>
@@ -4318,7 +4312,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CONSULATE" /&gt;&lt;Set Cost="135"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -4369,7 +4363,7 @@
         <v>195</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R30" t="s">
         <v>2</v>
@@ -4382,7 +4376,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_WORKSHOP" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -4433,7 +4427,7 @@
         <v>195</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R31" t="s">
         <v>2</v>
@@ -4446,7 +4440,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ARMORY" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -4497,7 +4491,7 @@
         <v>195</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R32" t="s">
         <v>2</v>
@@ -4510,7 +4504,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CATHEDRAL" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -4561,7 +4555,7 @@
         <v>195</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R33" t="s">
         <v>2</v>
@@ -4574,7 +4568,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GURDWARA" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -4625,7 +4619,7 @@
         <v>195</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R34" t="s">
         <v>2</v>
@@ -4638,7 +4632,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MEETING_HOUSE" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -4689,7 +4683,7 @@
         <v>195</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R35" t="s">
         <v>2</v>
@@ -4702,7 +4696,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MOSQUE" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -4753,7 +4747,7 @@
         <v>195</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R36" t="s">
         <v>2</v>
@@ -4766,7 +4760,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PAGODA" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -4817,7 +4811,7 @@
         <v>195</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R37" t="s">
         <v>2</v>
@@ -4830,7 +4824,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SYNAGOGUE" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>155</v>
       </c>
@@ -4881,7 +4875,7 @@
         <v>195</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R38" t="s">
         <v>2</v>
@@ -4894,7 +4888,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_WAT" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -4945,7 +4939,7 @@
         <v>195</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R39" t="s">
         <v>2</v>
@@ -4958,7 +4952,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STUPA" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -5009,7 +5003,7 @@
         <v>195</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R40" t="s">
         <v>2</v>
@@ -5022,7 +5016,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_DAR_E_MEHR" /&gt;&lt;Set Cost="195"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -5073,7 +5067,7 @@
         <v>215</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R41" t="s">
         <v>2</v>
@@ -5086,7 +5080,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CASTLE" /&gt;&lt;Set Cost="215"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -5137,7 +5131,7 @@
         <v>215</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R42" t="s">
         <v>2</v>
@@ -5150,7 +5144,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_QUEENS_BIBLIOTHEQUE" /&gt;&lt;Set Cost="215"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>165</v>
       </c>
@@ -5201,7 +5195,7 @@
         <v>230</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R43" t="s">
         <v>2</v>
@@ -5214,7 +5208,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GRAND_BAZAAR" /&gt;&lt;Set Cost="230"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -5265,7 +5259,7 @@
         <v>240</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R44" t="s">
         <v>2</v>
@@ -5278,7 +5272,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_UNIVERSITY" /&gt;&lt;Set Cost="240"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -5329,7 +5323,7 @@
         <v>240</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R45" t="s">
         <v>2</v>
@@ -5342,7 +5336,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MADRASA" /&gt;&lt;Set Cost="240"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>171</v>
       </c>
@@ -5393,7 +5387,7 @@
         <v>240</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R46" t="s">
         <v>2</v>
@@ -5406,7 +5400,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_TSIKHE" /&gt;&lt;Set Cost="240"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>173</v>
       </c>
@@ -5457,7 +5451,7 @@
         <v>240</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R47" t="s">
         <v>2</v>
@@ -5470,7 +5464,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_NAVIGATION_SCHOOL" /&gt;&lt;Set Cost="240"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -5521,7 +5515,7 @@
         <v>275</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R48" t="s">
         <v>2</v>
@@ -5534,7 +5528,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ZOO" /&gt;&lt;Set Cost="275"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -5585,7 +5579,7 @@
         <v>275</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R49" t="s">
         <v>2</v>
@@ -5598,7 +5592,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_THERMAL_BATH" /&gt;&lt;Set Cost="275"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>179</v>
       </c>
@@ -5649,7 +5643,7 @@
         <v>290</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R50" t="s">
         <v>2</v>
@@ -5662,7 +5656,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SHIPYARD" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -5713,7 +5707,7 @@
         <v>290</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R51" t="s">
         <v>2</v>
@@ -5726,7 +5720,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BANK" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -5777,7 +5771,7 @@
         <v>290</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R52" t="s">
         <v>2</v>
@@ -5790,7 +5784,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MUSEUM_ART" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>187</v>
       </c>
@@ -5841,7 +5835,7 @@
         <v>290</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R53" t="s">
         <v>2</v>
@@ -5854,7 +5848,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MUSEUM_ARTIFACT" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -5905,7 +5899,7 @@
         <v>290</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R54" t="s">
         <v>2</v>
@@ -5918,7 +5912,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FERRIS_WHEEL" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -5969,7 +5963,7 @@
         <v>290</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R55" t="s">
         <v>2</v>
@@ -5982,7 +5976,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_CITYSTATES" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>193</v>
       </c>
@@ -6033,7 +6027,7 @@
         <v>290</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R56" t="s">
         <v>2</v>
@@ -6046,7 +6040,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_SPIES" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>195</v>
       </c>
@@ -6097,7 +6091,7 @@
         <v>290</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R57" t="s">
         <v>2</v>
@@ -6110,7 +6104,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_FAITH" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>197</v>
       </c>
@@ -6161,7 +6155,7 @@
         <v>290</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R58" t="s">
         <v>2</v>
@@ -6174,7 +6168,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_CHANCERY" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>199</v>
       </c>
@@ -6225,7 +6219,7 @@
         <v>300</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R59" t="s">
         <v>2</v>
@@ -6238,7 +6232,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STAR_FORT" /&gt;&lt;Set Cost="300"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>201</v>
       </c>
@@ -6289,7 +6283,7 @@
         <v>360</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R60" t="s">
         <v>2</v>
@@ -6302,7 +6296,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FOOD_MARKET" /&gt;&lt;Set Cost="360"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>203</v>
       </c>
@@ -6353,7 +6347,7 @@
         <v>400</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R61" t="s">
         <v>2</v>
@@ -6366,7 +6360,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FACTORY" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>205</v>
       </c>
@@ -6417,7 +6411,7 @@
         <v>400</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R62" t="s">
         <v>2</v>
@@ -6430,7 +6424,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_ELECTRONICS_FACTORY" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -6481,7 +6475,7 @@
         <v>400</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R63" t="s">
         <v>2</v>
@@ -6494,7 +6488,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STOCK_EXCHANGE" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -6545,7 +6539,7 @@
         <v>400</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R64" t="s">
         <v>2</v>
@@ -6558,7 +6552,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MILITARY_ACADEMY" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>211</v>
       </c>
@@ -6609,7 +6603,7 @@
         <v>400</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R65" t="s">
         <v>2</v>
@@ -6622,7 +6616,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_COAL_POWER_PLANT" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>213</v>
       </c>
@@ -6669,11 +6663,11 @@
         <v>330</v>
       </c>
       <c r="P66">
-        <f t="shared" ref="P66:P89" si="12">ROUND(O66*P$1/5,0)*5</f>
+        <f t="shared" ref="P66:P87" si="12">ROUND(O66*P$1/5,0)*5</f>
         <v>400</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R66" t="s">
         <v>2</v>
@@ -6682,11 +6676,11 @@
         <v>3</v>
       </c>
       <c r="T66" t="str">
-        <f t="shared" ref="T66:T89" si="13">_xlfn.CONCAT(Q66,N66,R66,P66,S66)</f>
+        <f t="shared" ref="T66:T87" si="13">_xlfn.CONCAT(Q66,N66,R66,P66,S66)</f>
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SANCTUARY" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -6737,7 +6731,7 @@
         <v>400</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R67" t="s">
         <v>2</v>
@@ -6750,7 +6744,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HOSPITAL" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>217</v>
       </c>
@@ -6801,7 +6795,7 @@
         <v>400</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R68" t="s">
         <v>2</v>
@@ -6814,7 +6808,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_OPERA_HOUSE" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>219</v>
       </c>
@@ -6865,7 +6859,7 @@
         <v>400</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R69" t="s">
         <v>2</v>
@@ -6878,7 +6872,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_PUBLIC_SCHOOL" /&gt;&lt;Set Cost="400"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>221</v>
       </c>
@@ -6929,7 +6923,7 @@
         <v>420</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R70" t="s">
         <v>2</v>
@@ -6942,7 +6936,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_AQUARIUM" /&gt;&lt;Set Cost="420"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>223</v>
       </c>
@@ -6993,7 +6987,7 @@
         <v>445</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R71" t="s">
         <v>2</v>
@@ -7006,7 +7000,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HANGAR" /&gt;&lt;Set Cost="445"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>225</v>
       </c>
@@ -7057,7 +7051,7 @@
         <v>520</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R72" t="s">
         <v>2</v>
@@ -7070,7 +7064,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SEAPORT" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>227</v>
       </c>
@@ -7121,7 +7115,7 @@
         <v>520</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R73" t="s">
         <v>2</v>
@@ -7134,7 +7128,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_BROADCAST_CENTER" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>229</v>
       </c>
@@ -7185,7 +7179,7 @@
         <v>520</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R74" t="s">
         <v>2</v>
@@ -7198,7 +7192,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FILM_STUDIO" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>231</v>
       </c>
@@ -7249,7 +7243,7 @@
         <v>520</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R75" t="s">
         <v>2</v>
@@ -7262,7 +7256,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_MILITARY" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>233</v>
       </c>
@@ -7313,7 +7307,7 @@
         <v>520</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R76" t="s">
         <v>2</v>
@@ -7326,7 +7320,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_CULTURE" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>234</v>
       </c>
@@ -7377,7 +7371,7 @@
         <v>520</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R77" t="s">
         <v>2</v>
@@ -7390,7 +7384,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_GOV_SCIENCE" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>235</v>
       </c>
@@ -7441,7 +7435,7 @@
         <v>520</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R78" t="s">
         <v>2</v>
@@ -7454,7 +7448,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_SHOPPING_MALL" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>237</v>
       </c>
@@ -7505,7 +7499,7 @@
         <v>520</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R79" t="s">
         <v>2</v>
@@ -7518,7 +7512,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_HYDROELECTRIC_DAM" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>239</v>
       </c>
@@ -7569,7 +7563,7 @@
         <v>520</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R80" t="s">
         <v>2</v>
@@ -7582,7 +7576,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_FOSSIL_FUEL_POWER_PLANT" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>240</v>
       </c>
@@ -7633,7 +7627,7 @@
         <v>520</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R81" t="s">
         <v>2</v>
@@ -7646,7 +7640,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MEDICAL_LAB" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>241</v>
       </c>
@@ -7687,17 +7681,17 @@
         <v>26</v>
       </c>
       <c r="N82" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="O82">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="P82">
         <f t="shared" si="12"/>
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R82" t="s">
         <v>2</v>
@@ -7707,10 +7701,10 @@
       </c>
       <c r="T82" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_VIVARIUM" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STADIUM" /&gt;&lt;Set Cost="540"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>242</v>
       </c>
@@ -7742,17 +7736,17 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_CUIRASSIER" /&gt;&lt;Set Cost="285"/&gt;&lt;/Update&gt;</v>
       </c>
       <c r="N83" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O83">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="P83">
         <f t="shared" si="12"/>
-        <v>540</v>
+        <v>650</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R83" t="s">
         <v>2</v>
@@ -7762,10 +7756,10 @@
       </c>
       <c r="T83" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_STADIUM" /&gt;&lt;Set Cost="540"/&gt;&lt;/Update&gt;</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_POWER_PLANT" /&gt;&lt;Set Cost="650"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>243</v>
       </c>
@@ -7797,7 +7791,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_COLOMBIAN_LLANERO" /&gt;&lt;Set Cost="285"/&gt;&lt;/Update&gt;</v>
       </c>
       <c r="N84" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="O84">
         <v>540</v>
@@ -7807,7 +7801,7 @@
         <v>650</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R84" t="s">
         <v>2</v>
@@ -7817,10 +7811,10 @@
       </c>
       <c r="T84" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_POWER_PLANT" /&gt;&lt;Set Cost="650"/&gt;&lt;/Update&gt;</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_RESEARCH_LAB" /&gt;&lt;Set Cost="650"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>244</v>
       </c>
@@ -7852,7 +7846,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_HUNGARY_HUSZAR" /&gt;&lt;Set Cost="290"/&gt;&lt;/Update&gt;</v>
       </c>
       <c r="N85" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="O85">
         <v>540</v>
@@ -7862,7 +7856,7 @@
         <v>650</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R85" t="s">
         <v>2</v>
@@ -7872,10 +7866,10 @@
       </c>
       <c r="T85" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_RESEARCH_LAB" /&gt;&lt;Set Cost="650"/&gt;&lt;/Update&gt;</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_AIRPORT" /&gt;&lt;Set Cost="650"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>245</v>
       </c>
@@ -7907,7 +7901,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_RUSSIAN_COSSACK" /&gt;&lt;Set Cost="295"/&gt;&lt;/Update&gt;</v>
       </c>
       <c r="N86" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O86">
         <v>540</v>
@@ -7917,7 +7911,7 @@
         <v>650</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R86" t="s">
         <v>2</v>
@@ -7927,10 +7921,10 @@
       </c>
       <c r="T86" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_AIRPORT" /&gt;&lt;Set Cost="650"/&gt;&lt;/Update&gt;</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_AQUATICS_CENTER" /&gt;&lt;Set Cost="650"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>246</v>
       </c>
@@ -7962,17 +7956,17 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ENGLISH_REDCOAT" /&gt;&lt;Set Cost="315"/&gt;&lt;/Update&gt;</v>
       </c>
       <c r="N87" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="O87">
-        <v>540</v>
+        <v>650</v>
       </c>
       <c r="P87">
         <f t="shared" si="12"/>
-        <v>650</v>
+        <v>785</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R87" t="s">
         <v>2</v>
@@ -7982,10 +7976,10 @@
       </c>
       <c r="T87" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_AQUATICS_CENTER" /&gt;&lt;Set Cost="650"/&gt;&lt;/Update&gt;</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
+        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MANUFACTURING_PLANT" /&gt;&lt;Set Cost="785"/&gt;&lt;/Update&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>247</v>
       </c>
@@ -8016,31 +8010,8 @@
         <f t="shared" si="11"/>
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_FRENCH_GARDE_IMPERIALE" /&gt;&lt;Set Cost="315"/&gt;&lt;/Update&gt;</v>
       </c>
-      <c r="N88" t="s">
-        <v>293</v>
-      </c>
-      <c r="O88">
-        <v>650</v>
-      </c>
-      <c r="P88">
-        <f t="shared" si="12"/>
-        <v>785</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="R88" t="s">
-        <v>2</v>
-      </c>
-      <c r="S88" t="s">
-        <v>3</v>
-      </c>
-      <c r="T88" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_MANUFACTURING_PLANT" /&gt;&lt;Set Cost="785"/&gt;&lt;/Update&gt;</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -8071,31 +8042,8 @@
         <f t="shared" si="11"/>
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_LINE_INFANTRY" /&gt;&lt;Set Cost="315"/&gt;&lt;/Update&gt;</v>
       </c>
-      <c r="N89" t="s">
-        <v>294</v>
-      </c>
-      <c r="O89">
-        <v>650</v>
-      </c>
-      <c r="P89">
-        <f t="shared" si="12"/>
-        <v>785</v>
-      </c>
-      <c r="Q89" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="R89" t="s">
-        <v>2</v>
-      </c>
-      <c r="S89" t="s">
-        <v>3</v>
-      </c>
-      <c r="T89" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Update&gt;&lt;Where BuildingType="BUILDING_VISITOR_CENTER" /&gt;&lt;Set Cost="785"/&gt;&lt;/Update&gt;</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -8127,7 +8075,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MEDIC" /&gt;&lt;Set Cost="320"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -8159,7 +8107,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_IRONCLAD" /&gt;&lt;Set Cost="330"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -8191,7 +8139,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_RANGER" /&gt;&lt;Set Cost="330"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -8223,7 +8171,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SCOTTISH_HIGHLANDER" /&gt;&lt;Set Cost="330"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -8255,7 +8203,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_AMERICAN_ROUGH_RIDER" /&gt;&lt;Set Cost="335"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>255</v>
       </c>
@@ -8287,7 +8235,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_AT_CREW" /&gt;&lt;Set Cost="350"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>256</v>
       </c>
@@ -8319,7 +8267,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_DRONE" /&gt;&lt;Set Cost="365"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>257</v>
       </c>
@@ -8351,7 +8299,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BIPLANE" /&gt;&lt;Set Cost="375"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -8383,7 +8331,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_INFANTRY" /&gt;&lt;Set Cost="375"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>259</v>
       </c>
@@ -8415,7 +8363,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ARTILLERY" /&gt;&lt;Set Cost="375"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>260</v>
       </c>
@@ -8447,7 +8395,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BATTLESHIP" /&gt;&lt;Set Cost="375"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>261</v>
       </c>
@@ -8479,7 +8427,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BRAZILIAN_MINAS_GERAES" /&gt;&lt;Set Cost="375"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>262</v>
       </c>
@@ -8511,7 +8459,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_GERMAN_UBOAT" /&gt;&lt;Set Cost="375"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>263</v>
       </c>
@@ -8543,7 +8491,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_DIGGER" /&gt;&lt;Set Cost="375"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>264</v>
       </c>
@@ -8575,7 +8523,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SUPPLY_CONVOY" /&gt;&lt;Set Cost="390"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>265</v>
       </c>
@@ -8607,7 +8555,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ANTIAIR_GUN" /&gt;&lt;Set Cost="395"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>266</v>
       </c>
@@ -8639,7 +8587,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SUBMARINE" /&gt;&lt;Set Cost="420"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>267</v>
       </c>
@@ -8671,7 +8619,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_TANK" /&gt;&lt;Set Cost="420"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>268</v>
       </c>
@@ -8703,7 +8651,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_FIGHTER" /&gt;&lt;Set Cost="450"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>269</v>
       </c>
@@ -8735,7 +8683,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_AMERICAN_P51" /&gt;&lt;Set Cost="450"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>270</v>
       </c>
@@ -8767,7 +8715,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_SPEC_OPS" /&gt;&lt;Set Cost="450"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>271</v>
       </c>
@@ -8799,7 +8747,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MACHINE_GUN" /&gt;&lt;Set Cost="470"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>272</v>
       </c>
@@ -8831,7 +8779,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_AIRCRAFT_CARRIER" /&gt;&lt;Set Cost="470"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>273</v>
       </c>
@@ -8863,7 +8811,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_DESTROYER" /&gt;&lt;Set Cost="470"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>274</v>
       </c>
@@ -8895,7 +8843,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_BOMBER" /&gt;&lt;Set Cost="485"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>275</v>
       </c>
@@ -8927,7 +8875,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MODERN_AT" /&gt;&lt;Set Cost="505"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>276</v>
       </c>
@@ -8959,7 +8907,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MOBILE_SAM" /&gt;&lt;Set Cost="515"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>277</v>
       </c>
@@ -8991,7 +8939,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_HELICOPTER" /&gt;&lt;Set Cost="520"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>278</v>
       </c>
@@ -9023,7 +8971,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MECHANIZED_INFANTRY" /&gt;&lt;Set Cost="565"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>279</v>
       </c>
@@ -9055,7 +9003,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_JET_FIGHTER" /&gt;&lt;Set Cost="565"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>280</v>
       </c>
@@ -9087,7 +9035,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_NUCLEAR_SUBMARINE" /&gt;&lt;Set Cost="590"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>281</v>
       </c>
@@ -9119,7 +9067,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_ROCKET_ARTILLERY" /&gt;&lt;Set Cost="590"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>282</v>
       </c>
@@ -9151,7 +9099,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MISSILE_CRUISER" /&gt;&lt;Set Cost="590"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>283</v>
       </c>
@@ -9183,7 +9131,7 @@
         <v>&lt;Update&gt;&lt;Where UnitType="UNIT_MODERN_ARMOR" /&gt;&lt;Set Cost="590"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>79</v>
       </c>
@@ -9215,7 +9163,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_TRADER" /&gt;&lt;Set Cost="35"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>87</v>
       </c>
@@ -9247,7 +9195,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_BUILDER" /&gt;&lt;Set Cost="45"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>145</v>
       </c>
@@ -9279,7 +9227,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_GURU" /&gt;&lt;Set Cost="105"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>115</v>
       </c>
@@ -9311,7 +9259,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_MISSIONARY" /&gt;&lt;Set Cost="65"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>117</v>
       </c>
@@ -9343,7 +9291,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_INQUISITOR" /&gt;&lt;Set Cost="65"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>119</v>
       </c>
@@ -9375,7 +9323,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_SETTLER" /&gt;&lt;Set Cost="70"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>183</v>
       </c>
@@ -9407,7 +9355,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_APOSTLE" /&gt;&lt;Set Cost="175"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>238</v>
       </c>
@@ -9439,7 +9387,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_ROCK_BAND" /&gt;&lt;Set Cost="260"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>236</v>
       </c>
@@ -9471,7 +9419,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_NATURALIST" /&gt;&lt;Set Cost="260"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>254</v>
       </c>
@@ -9503,7 +9451,7 @@
         <v>&lt;Update&gt;&lt;Where BuildingType="UNIT_ARCHAEOLOGIST" /&gt;&lt;Set Cost="350"/&gt;&lt;/Update&gt;</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>79</v>
       </c>
@@ -9517,7 +9465,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>119</v>
       </c>
@@ -9531,7 +9479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>87</v>
       </c>
@@ -9545,9 +9493,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B139">
         <v>75</v>
@@ -9559,7 +9507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>183</v>
       </c>
@@ -9573,7 +9521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>117</v>
       </c>
@@ -9587,7 +9535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -9601,7 +9549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>205</v>
       </c>
@@ -9615,7 +9563,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>236</v>
       </c>
@@ -9629,7 +9577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>238</v>
       </c>
@@ -9644,8 +9592,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:P89">
-    <sortCondition ref="O2:O89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:P87">
+    <sortCondition ref="O2:O87"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
